--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/plasticb_notbad.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/plasticb_notbad.xlsx
@@ -33,7 +33,7 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,279,0.67,19.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.06,0.0</t>
+    <t>12.0,5.75,0.3,0.4,0.74,0.0,15.05,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.33,0.17,0.17,0.0,0.0,0.08,0.0,0.0,0.0,0.0,16.71,14.33,6.49,1.07,1.21,0.88,0.67,19.74,0.0,0.0,1.0,0,0,0.0,0.0,2.7,0.23,0.14,0.19,0.07,0.07,0.02,0.07,0.1,0.0,0.0,6.24</t>
   </si>
   <si>
     <t>arg219203</t>
@@ -42,7 +42,7 @@
     <t>arg219206</t>
   </si>
   <si>
-    <t>133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25</t>
+    <t>19.0,7.0,0.47,0.4,1.17,0.0,21.02,0.0,0.21,0.0,0,0,0.0,0.05,8.11,0.47,0.11,0.11,0.0,0.0,0.0,0.0,0.0,0.25,0.25,5.46,16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62</t>
   </si>
   <si>
     <t>g/</t>
@@ -60,28 +60,28 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0,57,0.5,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82,5.0,5.7,0.25,0.81,0.31,0.5,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.4,0.0,0.1,0.0,0.0,0.1,0.0,0.0,0.0,0.0,18.67</t>
   </si>
   <si>
     <t>arg219216</t>
   </si>
   <si>
-    <t>67,0.0,12.23,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0,279,0.67,19.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.06,0.0</t>
+    <t>13.0,5.15,0.32,0.4,0.8,0.0,12.23,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.46,0.15,0.15,0.0,0.0,0.0,0.0,0.0,0.0,0.0,18.17,14.33,6.49,1.07,1.21,0.88,0.67,19.74,0.0,0.0,1.0,0,0,0.0,0.0,2.7,0.23,0.14,0.19,0.07,0.07,0.02,0.07,0.1,0.0,0.0,6.24</t>
   </si>
   <si>
     <t>arg219294</t>
   </si>
   <si>
-    <t>279,0.67,19.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.06,0.0,150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25</t>
+    <t>14.33,6.49,1.07,1.21,0.88,0.67,19.74,0.0,0.0,1.0,0,0,0.0,0.0,2.7,0.23,0.14,0.19,0.07,0.07,0.02,0.07,0.1,0.0,0.0,6.24,12.5,6.0,0.62,0.81,0.77,0.0,16.41,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.28,0.04,0.04,0.04,0.0,0.0,0.25,0.25,12.1</t>
   </si>
   <si>
     <t>arg219244</t>
   </si>
   <si>
-    <t>272,0.0,17.19,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.15,0.15,0.0,0.0,69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25,279,0.67,19.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.06,0.0</t>
+    <t>15.0,6.04,1.11,1.21,0.92,0.0,17.19,0.0,0.0,1.0,2,1,0.0,0.02,2.7,0.27,0.11,0.24,0.09,0.09,0.02,0.07,0.14,0.0,0.0,6.89,12.0,5.75,0.3,0.4,0.74,0.0,15.05,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.33,0.17,0.17,0.0,0.0,0.08,0.0,0.0,0.0,0.0,16.71</t>
+  </si>
+  <si>
+    <t>16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62,14.33,6.49,1.07,1.21,0.88,0.67,19.74,0.0,0.0,1.0,0,0,0.0,0.0,2.7,0.23,0.14,0.19,0.07,0.07,0.02,0.07,0.1,0.0,0.0,6.24</t>
   </si>
   <si>
     <t>b</t>
@@ -93,7 +93,7 @@
     <t>arg219291</t>
   </si>
   <si>
-    <t>73,0.0,14.94,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0</t>
+    <t>13.0,5.62,0.32,0.4,0.8,0.0,14.94,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.23,0.08,0.23,0.15,0.15,0.0,0.0,0.0,0.0,0.0,25.75,13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82</t>
   </si>
   <si>
     <t>arg219198</t>
@@ -102,13 +102,13 @@
     <t>arg219258</t>
   </si>
   <si>
-    <t>104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0,396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25</t>
+    <t>22.0,4.73,0.54,0.4,1.35,0.0,10.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.14,0.0,0.0,0.09,0.0,0.0,0.0,0.0,3.57,13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6</t>
   </si>
   <si>
     <t>arg219276</t>
   </si>
   <si>
-    <t>104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0,97,0.0,15.32,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>22.0,4.73,0.54,0.4,1.35,0.0,10.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.14,0.0,0.0,0.09,0.0,0.0,0.0,0.0,3.57,17.0,5.71,0.42,0.4,1.04,0.0,15.32,0.0,0.12,1.0,0,0,0.0,0.0,1.35,0.35,0.06,0.29,0.12,0.12,0.0,0.06,0.0,0.0,0.0,14.5</t>
   </si>
   <si>
     <t>arg219200</t>
@@ -117,88 +117,88 @@
     <t>arg219242</t>
   </si>
   <si>
-    <t>245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0,72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,14.94,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
+    <t>9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82,15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0</t>
+  </si>
+  <si>
+    <t>13.0,5.62,0.32,0.4,0.8,0.0,14.94,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.23,0.08,0.23,0.15,0.15,0.0,0.0,0.0,0.0,0.0,25.75,19.0,7.0,0.47,0.4,1.17,0.0,21.02,0.0,0.21,0.0,0,0,0.0,0.05,8.11,0.47,0.11,0.11,0.0,0.0,0.0,0.0,0.0,0.25,0.25,5.46</t>
   </si>
   <si>
     <t>arg219226</t>
   </si>
   <si>
-    <t>118,0.0,15.05,0.0,0.1,1.0,0.0,0.05,0.0,0.2,0.25,0.25,0.0,0.0,396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25</t>
-  </si>
-  <si>
-    <t>73,0.0,14.94,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0</t>
+    <t>10.0,5.9,0.5,0.81,0.61,0.0,15.05,0.0,0.1,1.0,0,0,0.0,0.05,0.0,0.25,0.0,0.25,0.15,0.15,0.05,0.0,0.0,0.0,0.0,12.4,13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6</t>
+  </si>
+  <si>
+    <t>13.0,5.62,0.32,0.4,0.8,0.0,14.94,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.23,0.08,0.23,0.15,0.15,0.0,0.0,0.0,0.0,0.0,25.75,9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82</t>
   </si>
   <si>
     <t>arg219293</t>
   </si>
   <si>
-    <t>73,0.0,14.94,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,224,0.25,13.33,0.0,0.04,1.5,0.0,0.04,0.0,0.15,0.2,0.2,0.06,0.0</t>
+    <t>13.0,5.62,0.32,0.4,0.8,0.0,14.94,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.23,0.08,0.23,0.15,0.15,0.0,0.0,0.0,0.0,0.0,25.75,6.5,8.62,0.64,1.61,0.4,0.25,13.33,0.0,0.04,1.5,6,1,0.0,0.04,0.0,0.19,0.23,0.15,0.04,0.04,0.08,0.04,0.0,0.0,0.0,14.13</t>
   </si>
   <si>
     <t>arg219245</t>
   </si>
   <si>
-    <t>457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0,73,0.0,14.94,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48,13.0,5.62,0.32,0.4,0.8,0.0,14.94,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.23,0.08,0.23,0.15,0.15,0.0,0.0,0.0,0.0,0.0,25.75</t>
   </si>
   <si>
     <t>arg219259</t>
   </si>
   <si>
-    <t>417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0,73,0.0,14.94,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>16.0,6.52,1.59,1.61,0.98,0.25,20.21,0.0,0.0,1.0,4,0,0.0,0.02,0.0,0.3,0.23,0.16,0.13,0.13,0.0,0.08,0.1,0.0,0.0,6.13,13.0,5.62,0.32,0.4,0.8,0.0,14.94,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.23,0.08,0.23,0.15,0.15,0.0,0.0,0.0,0.0,0.0,25.75</t>
   </si>
   <si>
     <t>arg219201</t>
   </si>
   <si>
-    <t>419,0.67,14.39,0.0,0.03,1.0,0.0,0.0,0.0,0.35,0.3,0.35,0.0,0.0,57,0.5,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>279,0.67,19.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.06,0.0,97,0.0,15.32,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>25.67,5.44,1.91,1.21,1.58,0.67,14.39,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.17,0.08,0.08,0.08,0.03,0.1,0.0,0.0,9.53,5.0,5.7,0.25,0.81,0.31,0.5,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.4,0.0,0.1,0.0,0.0,0.1,0.0,0.0,0.0,0.0,18.67</t>
+  </si>
+  <si>
+    <t>14.33,6.49,1.07,1.21,0.88,0.67,19.74,0.0,0.0,1.0,0,0,0.0,0.0,2.7,0.23,0.14,0.19,0.07,0.07,0.02,0.07,0.1,0.0,0.0,6.24,17.0,5.71,0.42,0.4,1.04,0.0,15.32,0.0,0.12,1.0,0,0,0.0,0.0,1.35,0.35,0.06,0.29,0.12,0.12,0.0,0.06,0.0,0.0,0.0,14.5</t>
   </si>
   <si>
     <t>arg219250</t>
   </si>
   <si>
-    <t>68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0,104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0</t>
+    <t>14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2,22.0,4.73,0.54,0.4,1.35,0.0,10.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.14,0.0,0.0,0.09,0.0,0.0,0.0,0.0,3.57</t>
   </si>
   <si>
     <t>arg219209</t>
   </si>
   <si>
-    <t>77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,224,0.25,13.33,0.0,0.04,1.5,0.0,0.04,0.0,0.15,0.2,0.2,0.06,0.0</t>
+    <t>5.5,7.0,0.27,0.81,0.34,0.0,18.91,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.27,0.18,0.09,0.09,0.09,0.0,0.0,0.0,0.0,0.0,19.5,6.5,8.62,0.64,1.61,0.4,0.25,13.33,0.0,0.04,1.5,6,1,0.0,0.04,0.0,0.19,0.23,0.15,0.04,0.04,0.08,0.04,0.0,0.0,0.0,14.13</t>
   </si>
   <si>
     <t>arg219268</t>
   </si>
   <si>
-    <t>396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25,57,0.0,14.17,0.0,0.1,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0,644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0</t>
-  </si>
-  <si>
-    <t>97,0.0,15.32,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0</t>
-  </si>
-  <si>
-    <t>67,0.0,12.23,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0,644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0</t>
-  </si>
-  <si>
-    <t>133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,97,0.0,15.32,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.0,15.05,0.0,0.1,1.0,0.0,0.05,0.0,0.2,0.25,0.25,0.0,0.0,681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25</t>
-  </si>
-  <si>
-    <t>245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0,150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25</t>
-  </si>
-  <si>
-    <t>57,0.0,14.17,0.0,0.1,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,279,0.67,19.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.06,0.0</t>
-  </si>
-  <si>
-    <t>272,0.0,17.19,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.15,0.15,0.0,0.0,681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25</t>
+    <t>13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6,10.0,5.7,0.25,0.4,0.61,0.0,14.17,0.0,0.1,1.0,0,0,0.0,0.0,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0,13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82</t>
+  </si>
+  <si>
+    <t>17.0,5.71,0.42,0.4,1.04,0.0,15.32,0.0,0.12,1.0,0,0,0.0,0.0,1.35,0.35,0.06,0.29,0.12,0.12,0.0,0.06,0.0,0.0,0.0,14.5,13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82</t>
+  </si>
+  <si>
+    <t>13.0,5.15,0.32,0.4,0.8,0.0,12.23,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.46,0.15,0.15,0.0,0.0,0.0,0.0,0.0,0.0,0.0,18.17,13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82</t>
+  </si>
+  <si>
+    <t>19.0,7.0,0.47,0.4,1.17,0.0,21.02,0.0,0.21,0.0,0,0,0.0,0.05,8.11,0.47,0.11,0.11,0.0,0.0,0.0,0.0,0.0,0.25,0.25,5.46,17.0,5.71,0.42,0.4,1.04,0.0,15.32,0.0,0.12,1.0,0,0,0.0,0.0,1.35,0.35,0.06,0.29,0.12,0.12,0.0,0.06,0.0,0.0,0.0,14.5</t>
+  </si>
+  <si>
+    <t>10.0,5.9,0.5,0.81,0.61,0.0,15.05,0.0,0.1,1.0,0,0,0.0,0.05,0.0,0.25,0.0,0.25,0.15,0.15,0.05,0.0,0.0,0.0,0.0,12.4,16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62</t>
+  </si>
+  <si>
+    <t>9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82,12.5,6.0,0.62,0.81,0.77,0.0,16.41,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.28,0.04,0.04,0.04,0.0,0.0,0.25,0.25,12.1</t>
+  </si>
+  <si>
+    <t>10.0,5.7,0.25,0.4,0.61,0.0,14.17,0.0,0.1,1.0,0,0,0.0,0.0,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.6,14.33,6.49,1.07,1.21,0.88,0.67,19.74,0.0,0.0,1.0,0,0,0.0,0.0,2.7,0.23,0.14,0.19,0.07,0.07,0.02,0.07,0.1,0.0,0.0,6.24</t>
+  </si>
+  <si>
+    <t>15.0,6.04,1.11,1.21,0.92,0.0,17.19,0.0,0.0,1.0,2,1,0.0,0.02,2.7,0.27,0.11,0.24,0.09,0.09,0.02,0.07,0.14,0.0,0.0,6.89,16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62</t>
   </si>
   <si>
     <t>r</t>
@@ -207,136 +207,136 @@
     <t>to trace when a potential health risk does occur. &lt;br/&gt; (http://www.friendsjournal.org/bottled-water) (http://www.cdc.gov/healthywater/drinking/bottled/)</t>
   </si>
   <si>
-    <t>396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25,57,0.5,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>279,0.67,19.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.06,0.0,68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>224,0.25,13.33,0.0,0.04,1.5,0.0,0.04,0.0,0.15,0.2,0.2,0.06,0.0,68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0</t>
+    <t>13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6,5.0,5.7,0.25,0.81,0.31,0.5,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.4,0.0,0.1,0.0,0.0,0.1,0.0,0.0,0.0,0.0,18.67</t>
+  </si>
+  <si>
+    <t>14.33,6.49,1.07,1.21,0.88,0.67,19.74,0.0,0.0,1.0,0,0,0.0,0.0,2.7,0.23,0.14,0.19,0.07,0.07,0.02,0.07,0.1,0.0,0.0,6.24,14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>6.5,8.62,0.64,1.61,0.4,0.25,13.33,0.0,0.04,1.5,6,1,0.0,0.04,0.0,0.19,0.23,0.15,0.04,0.04,0.08,0.04,0.0,0.0,0.0,14.13,14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2</t>
   </si>
   <si>
     <t>arg219298</t>
   </si>
   <si>
-    <t>667,0.14,20.22,0.0,0.01,1.14,0.0,0.02,0.0,0.3,0.3,0.35,0.19,0.0,67,0.0,12.23,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,14.94,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,279,0.67,19.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.06,0.0</t>
-  </si>
-  <si>
-    <t>118,0.0,15.05,0.0,0.1,1.0,0.0,0.05,0.0,0.2,0.25,0.25,0.0,0.0,644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0</t>
-  </si>
-  <si>
-    <t>681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25,72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0</t>
+    <t>14.0,6.81,2.43,2.82,0.86,0.14,20.22,0.0,0.01,1.14,6,1,0.0,0.02,2.7,0.3,0.06,0.17,0.03,0.03,0.01,0.06,0.14,0.0,0.0,3.74,13.0,5.15,0.32,0.4,0.8,0.0,12.23,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.46,0.15,0.15,0.0,0.0,0.0,0.0,0.0,0.0,0.0,18.17</t>
+  </si>
+  <si>
+    <t>13.0,5.62,0.32,0.4,0.8,0.0,14.94,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.23,0.08,0.23,0.15,0.15,0.0,0.0,0.0,0.0,0.0,25.75,14.33,6.49,1.07,1.21,0.88,0.67,19.74,0.0,0.0,1.0,0,0,0.0,0.0,2.7,0.23,0.14,0.19,0.07,0.07,0.02,0.07,0.1,0.0,0.0,6.24</t>
+  </si>
+  <si>
+    <t>10.0,5.9,0.5,0.81,0.61,0.0,15.05,0.0,0.1,1.0,0,0,0.0,0.05,0.0,0.25,0.0,0.25,0.15,0.15,0.05,0.0,0.0,0.0,0.0,12.4,13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82</t>
+  </si>
+  <si>
+    <t>16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62,15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0</t>
   </si>
   <si>
     <t>arg219289</t>
   </si>
   <si>
-    <t>371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0,419,0.67,14.39,0.0,0.03,1.0,0.0,0.0,0.0,0.35,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25,67,0.0,12.23,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,14.94,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25</t>
-  </si>
-  <si>
-    <t>417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0,97,0.0,15.32,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52,25.67,5.44,1.91,1.21,1.58,0.67,14.39,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.17,0.08,0.08,0.08,0.03,0.1,0.0,0.0,9.53</t>
+  </si>
+  <si>
+    <t>13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6,13.0,5.15,0.32,0.4,0.8,0.0,12.23,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.46,0.15,0.15,0.0,0.0,0.0,0.0,0.0,0.0,0.0,18.17</t>
+  </si>
+  <si>
+    <t>13.0,5.62,0.32,0.4,0.8,0.0,14.94,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.23,0.08,0.23,0.15,0.15,0.0,0.0,0.0,0.0,0.0,25.75,13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6</t>
+  </si>
+  <si>
+    <t>16.0,6.52,1.59,1.61,0.98,0.25,20.21,0.0,0.0,1.0,4,0,0.0,0.02,0.0,0.3,0.23,0.16,0.13,0.13,0.0,0.08,0.1,0.0,0.0,6.13,17.0,5.71,0.42,0.4,1.04,0.0,15.32,0.0,0.12,1.0,0,0,0.0,0.0,1.35,0.35,0.06,0.29,0.12,0.12,0.0,0.06,0.0,0.0,0.0,14.5</t>
   </si>
   <si>
     <t>arg219223</t>
   </si>
   <si>
-    <t>143,0.0,15.17,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0,396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25</t>
-  </si>
-  <si>
-    <t>245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0,143,0.0,15.17,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,14.94,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>97,0.0,15.32,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25</t>
-  </si>
-  <si>
-    <t>133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0,77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0,67,0.0,12.23,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0,457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0</t>
-  </si>
-  <si>
-    <t>68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0,396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25</t>
-  </si>
-  <si>
-    <t>681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25,68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,14.94,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,272,0.0,17.19,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0,97,0.0,15.32,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0,69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0,396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25</t>
-  </si>
-  <si>
-    <t>279,0.67,19.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.06,0.0,457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0</t>
-  </si>
-  <si>
-    <t>57,0.0,14.17,0.0,0.1,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0</t>
-  </si>
-  <si>
-    <t>681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25,97,0.0,15.32,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>143,0.0,15.17,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0,224,0.25,13.33,0.0,0.04,1.5,0.0,0.04,0.0,0.15,0.2,0.2,0.06,0.0</t>
-  </si>
-  <si>
-    <t>72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0,457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0</t>
-  </si>
-  <si>
-    <t>69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25</t>
-  </si>
-  <si>
-    <t>77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25</t>
-  </si>
-  <si>
-    <t>77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0</t>
-  </si>
-  <si>
-    <t>245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0,77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>26.0,5.5,0.64,0.4,1.6,0.0,15.17,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.08,0.0,0.0,0.08,0.0,0.0,0.0,0.0,11.45,13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6</t>
+  </si>
+  <si>
+    <t>9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82,26.0,5.5,0.64,0.4,1.6,0.0,15.17,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.08,0.0,0.0,0.08,0.0,0.0,0.0,0.0,11.45</t>
+  </si>
+  <si>
+    <t>13.0,5.62,0.32,0.4,0.8,0.0,14.94,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.23,0.08,0.23,0.15,0.15,0.0,0.0,0.0,0.0,0.0,25.75,36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52</t>
+  </si>
+  <si>
+    <t>17.0,5.71,0.42,0.4,1.04,0.0,15.32,0.0,0.12,1.0,0,0,0.0,0.0,1.35,0.35,0.06,0.29,0.12,0.12,0.0,0.06,0.0,0.0,0.0,14.5,14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>5.5,7.0,0.27,0.81,0.34,0.0,18.91,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.27,0.18,0.09,0.09,0.09,0.0,0.0,0.0,0.0,0.0,19.5,13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6</t>
+  </si>
+  <si>
+    <t>19.0,7.0,0.47,0.4,1.17,0.0,21.02,0.0,0.21,0.0,0,0,0.0,0.05,8.11,0.47,0.11,0.11,0.0,0.0,0.0,0.0,0.0,0.25,0.25,5.46,12.0,5.75,0.3,0.4,0.74,0.0,15.05,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.33,0.17,0.17,0.0,0.0,0.08,0.0,0.0,0.0,0.0,16.71</t>
+  </si>
+  <si>
+    <t>36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52,5.5,7.0,0.27,0.81,0.34,0.0,18.91,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.27,0.18,0.09,0.09,0.09,0.0,0.0,0.0,0.0,0.0,19.5</t>
+  </si>
+  <si>
+    <t>16.0,6.52,1.59,1.61,0.98,0.25,20.21,0.0,0.0,1.0,4,0,0.0,0.02,0.0,0.3,0.23,0.16,0.13,0.13,0.0,0.08,0.1,0.0,0.0,6.13,13.0,5.15,0.32,0.4,0.8,0.0,12.23,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.46,0.15,0.15,0.0,0.0,0.0,0.0,0.0,0.0,0.0,18.17</t>
+  </si>
+  <si>
+    <t>9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82,14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48</t>
+  </si>
+  <si>
+    <t>14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2,13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6</t>
+  </si>
+  <si>
+    <t>16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62,14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>13.0,5.62,0.32,0.4,0.8,0.0,14.94,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.23,0.08,0.23,0.15,0.15,0.0,0.0,0.0,0.0,0.0,25.75,15.0,6.04,1.11,1.21,0.92,0.0,17.19,0.0,0.0,1.0,2,1,0.0,0.02,2.7,0.27,0.11,0.24,0.09,0.09,0.02,0.07,0.14,0.0,0.0,6.89</t>
+  </si>
+  <si>
+    <t>36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52,17.0,5.71,0.42,0.4,1.04,0.0,15.32,0.0,0.12,1.0,0,0,0.0,0.0,1.35,0.35,0.06,0.29,0.12,0.12,0.0,0.06,0.0,0.0,0.0,14.5</t>
+  </si>
+  <si>
+    <t>9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82,12.0,5.75,0.3,0.4,0.74,0.0,15.05,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.33,0.17,0.17,0.0,0.0,0.08,0.0,0.0,0.0,0.0,16.71</t>
+  </si>
+  <si>
+    <t>36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52,13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6</t>
+  </si>
+  <si>
+    <t>14.33,6.49,1.07,1.21,0.88,0.67,19.74,0.0,0.0,1.0,0,0,0.0,0.0,2.7,0.23,0.14,0.19,0.07,0.07,0.02,0.07,0.1,0.0,0.0,6.24,14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48</t>
+  </si>
+  <si>
+    <t>10.0,5.7,0.25,0.4,0.61,0.0,14.17,0.0,0.1,1.0,0,0,0.0,0.0,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.6,13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82</t>
+  </si>
+  <si>
+    <t>16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62,17.0,5.71,0.42,0.4,1.04,0.0,15.32,0.0,0.12,1.0,0,0,0.0,0.0,1.35,0.35,0.06,0.29,0.12,0.12,0.0,0.06,0.0,0.0,0.0,14.5</t>
+  </si>
+  <si>
+    <t>5.5,7.0,0.27,0.81,0.34,0.0,18.91,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.27,0.18,0.09,0.09,0.09,0.0,0.0,0.0,0.0,0.0,19.5,19.0,7.0,0.47,0.4,1.17,0.0,21.02,0.0,0.21,0.0,0,0,0.0,0.05,8.11,0.47,0.11,0.11,0.0,0.0,0.0,0.0,0.0,0.25,0.25,5.46</t>
+  </si>
+  <si>
+    <t>26.0,5.5,0.64,0.4,1.6,0.0,15.17,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.08,0.0,0.0,0.08,0.0,0.0,0.0,0.0,11.45,6.5,8.62,0.64,1.61,0.4,0.25,13.33,0.0,0.04,1.5,6,1,0.0,0.04,0.0,0.19,0.23,0.15,0.04,0.04,0.08,0.04,0.0,0.0,0.0,14.13</t>
+  </si>
+  <si>
+    <t>15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0,14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48</t>
+  </si>
+  <si>
+    <t>12.0,5.75,0.3,0.4,0.74,0.0,15.05,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.33,0.17,0.17,0.0,0.0,0.08,0.0,0.0,0.0,0.0,16.71,13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6</t>
+  </si>
+  <si>
+    <t>5.5,7.0,0.27,0.81,0.34,0.0,18.91,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.27,0.18,0.09,0.09,0.09,0.0,0.0,0.0,0.0,0.0,19.5,16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62</t>
+  </si>
+  <si>
+    <t>5.5,7.0,0.27,0.81,0.34,0.0,18.91,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.27,0.18,0.09,0.09,0.09,0.0,0.0,0.0,0.0,0.0,19.5,14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48</t>
+  </si>
+  <si>
+    <t>9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82,5.5,7.0,0.27,0.81,0.34,0.0,18.91,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.27,0.18,0.09,0.09,0.09,0.0,0.0,0.0,0.0,0.0,19.5</t>
   </si>
   <si>
     <t>arg219264</t>
   </si>
   <si>
-    <t>457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0,345,0.0,19.76,0.0,0.0,2.0,0.0,0.0,0.0,0.05,0.25,0.2,0.06,0.25</t>
-  </si>
-  <si>
-    <t>118,0.0,15.05,0.0,0.1,1.0,0.0,0.05,0.0,0.2,0.25,0.25,0.0,0.0,69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,419,0.67,14.39,0.0,0.03,1.0,0.0,0.0,0.0,0.35,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25,371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48,13.67,8.41,1.02,1.21,0.84,0.0,19.76,0.0,0.0,2.0,9,0,0.0,0.0,0.0,0.27,0.17,0.12,0.07,0.07,0.1,0.07,0.14,0.25,0.25,8.0</t>
+  </si>
+  <si>
+    <t>10.0,5.9,0.5,0.81,0.61,0.0,15.05,0.0,0.1,1.0,0,0,0.0,0.05,0.0,0.25,0.0,0.25,0.15,0.15,0.05,0.0,0.0,0.0,0.0,12.4,12.0,5.75,0.3,0.4,0.74,0.0,15.05,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.33,0.17,0.17,0.0,0.0,0.08,0.0,0.0,0.0,0.0,16.71</t>
+  </si>
+  <si>
+    <t>12.0,5.75,0.3,0.4,0.74,0.0,15.05,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.33,0.17,0.17,0.0,0.0,0.08,0.0,0.0,0.0,0.0,16.71,25.67,5.44,1.91,1.21,1.58,0.67,14.39,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.17,0.08,0.08,0.08,0.03,0.1,0.0,0.0,9.53</t>
+  </si>
+  <si>
+    <t>16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62,36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52</t>
   </si>
   <si>
     <t>da</t>
@@ -345,16 +345,16 @@
     <t>y and I'm getting all dehydrated and my only option for water is the ocean that I wouldn't drink from..I have two options, pass out from the heat and lack of water and waste the rest of my day sick/in the hospital..or drink out of a WATER BOTTLEE</t>
   </si>
   <si>
-    <t>681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25,73,0.0,14.94,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.5,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25</t>
-  </si>
-  <si>
-    <t>457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0,69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0,371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62,13.0,5.62,0.32,0.4,0.8,0.0,14.94,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.23,0.08,0.23,0.15,0.15,0.0,0.0,0.0,0.0,0.0,25.75</t>
+  </si>
+  <si>
+    <t>5.0,5.7,0.25,0.81,0.31,0.5,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.4,0.0,0.1,0.0,0.0,0.1,0.0,0.0,0.0,0.0,18.67,16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62</t>
+  </si>
+  <si>
+    <t>14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48,12.0,5.75,0.3,0.4,0.74,0.0,15.05,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.33,0.17,0.17,0.0,0.0,0.08,0.0,0.0,0.0,0.0,16.71</t>
+  </si>
+  <si>
+    <t>14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48,36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52</t>
   </si>
   <si>
     <t>k</t>
@@ -363,19 +363,19 @@
     <t>out of a WATER BOTTLEE</t>
   </si>
   <si>
-    <t>97,0.0,15.32,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,419,0.67,14.39,0.0,0.03,1.0,0.0,0.0,0.0,0.35,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>279,0.67,19.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.06,0.0,118,0.0,15.05,0.0,0.1,1.0,0.0,0.05,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0,57,0.0,14.17,0.0,0.1,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>419,0.67,14.39,0.0,0.03,1.0,0.0,0.0,0.0,0.35,0.3,0.35,0.0,0.0,681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25</t>
+    <t>17.0,5.71,0.42,0.4,1.04,0.0,15.32,0.0,0.12,1.0,0,0,0.0,0.0,1.35,0.35,0.06,0.29,0.12,0.12,0.0,0.06,0.0,0.0,0.0,14.5,25.67,5.44,1.91,1.21,1.58,0.67,14.39,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.17,0.08,0.08,0.08,0.03,0.1,0.0,0.0,9.53</t>
+  </si>
+  <si>
+    <t>14.33,6.49,1.07,1.21,0.88,0.67,19.74,0.0,0.0,1.0,0,0,0.0,0.0,2.7,0.23,0.14,0.19,0.07,0.07,0.02,0.07,0.1,0.0,0.0,6.24,10.0,5.9,0.5,0.81,0.61,0.0,15.05,0.0,0.1,1.0,0,0,0.0,0.05,0.0,0.25,0.0,0.25,0.15,0.15,0.05,0.0,0.0,0.0,0.0,12.4</t>
+  </si>
+  <si>
+    <t>14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48,10.0,5.7,0.25,0.4,0.61,0.0,14.17,0.0,0.1,1.0,0,0,0.0,0.0,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>19.0,7.0,0.47,0.4,1.17,0.0,21.02,0.0,0.21,0.0,0,0,0.0,0.05,8.11,0.47,0.11,0.11,0.0,0.0,0.0,0.0,0.0,0.25,0.25,5.46,15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0</t>
+  </si>
+  <si>
+    <t>25.67,5.44,1.91,1.21,1.58,0.67,14.39,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.17,0.08,0.08,0.08,0.03,0.1,0.0,0.0,9.53,16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62</t>
   </si>
   <si>
     <t>in</t>
@@ -384,31 +384,31 @@
     <t>stead of plastics to eliminate that detriment. Moreover, bottled water not only has a cleaner safety record than municipal water, but it easier to trace when a potential health risk does occur. &lt;br/&gt; (http://www.friendsjournal.org/bottled-water) (http://www.cdc.gov/healthywater/drinking/bottled/)</t>
   </si>
   <si>
-    <t>143,0.0,15.17,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0,417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0</t>
-  </si>
-  <si>
-    <t>224,0.25,13.33,0.0,0.04,1.5,0.0,0.04,0.0,0.15,0.2,0.2,0.06,0.0,118,0.0,15.05,0.0,0.1,1.0,0.0,0.05,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>667,0.14,20.22,0.0,0.01,1.14,0.0,0.02,0.0,0.3,0.3,0.35,0.19,0.0,97,0.0,15.32,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0,143,0.0,15.17,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0,396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25</t>
-  </si>
-  <si>
-    <t>97,0.0,15.32,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,272,0.0,17.19,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>272,0.0,17.19,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.15,0.15,0.0,0.0,118,0.0,15.05,0.0,0.1,1.0,0.0,0.05,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.5,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0</t>
-  </si>
-  <si>
-    <t>681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25,150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25</t>
+    <t>26.0,5.5,0.64,0.4,1.6,0.0,15.17,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.08,0.0,0.0,0.08,0.0,0.0,0.0,0.0,11.45,16.0,6.52,1.59,1.61,0.98,0.25,20.21,0.0,0.0,1.0,4,0,0.0,0.02,0.0,0.3,0.23,0.16,0.13,0.13,0.0,0.08,0.1,0.0,0.0,6.13</t>
+  </si>
+  <si>
+    <t>6.5,8.62,0.64,1.61,0.4,0.25,13.33,0.0,0.04,1.5,6,1,0.0,0.04,0.0,0.19,0.23,0.15,0.04,0.04,0.08,0.04,0.0,0.0,0.0,14.13,10.0,5.9,0.5,0.81,0.61,0.0,15.05,0.0,0.1,1.0,0,0,0.0,0.05,0.0,0.25,0.0,0.25,0.15,0.15,0.05,0.0,0.0,0.0,0.0,12.4</t>
+  </si>
+  <si>
+    <t>14.0,6.81,2.43,2.82,0.86,0.14,20.22,0.0,0.01,1.14,6,1,0.0,0.02,2.7,0.3,0.06,0.17,0.03,0.03,0.01,0.06,0.14,0.0,0.0,3.74,17.0,5.71,0.42,0.4,1.04,0.0,15.32,0.0,0.12,1.0,0,0,0.0,0.0,1.35,0.35,0.06,0.29,0.12,0.12,0.0,0.06,0.0,0.0,0.0,14.5</t>
+  </si>
+  <si>
+    <t>13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82,26.0,5.5,0.64,0.4,1.6,0.0,15.17,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.08,0.0,0.0,0.08,0.0,0.0,0.0,0.0,11.45</t>
+  </si>
+  <si>
+    <t>15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0,13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6</t>
+  </si>
+  <si>
+    <t>17.0,5.71,0.42,0.4,1.04,0.0,15.32,0.0,0.12,1.0,0,0,0.0,0.0,1.35,0.35,0.06,0.29,0.12,0.12,0.0,0.06,0.0,0.0,0.0,14.5,15.0,6.04,1.11,1.21,0.92,0.0,17.19,0.0,0.0,1.0,2,1,0.0,0.02,2.7,0.27,0.11,0.24,0.09,0.09,0.02,0.07,0.14,0.0,0.0,6.89</t>
+  </si>
+  <si>
+    <t>15.0,6.04,1.11,1.21,0.92,0.0,17.19,0.0,0.0,1.0,2,1,0.0,0.02,2.7,0.27,0.11,0.24,0.09,0.09,0.02,0.07,0.14,0.0,0.0,6.89,10.0,5.9,0.5,0.81,0.61,0.0,15.05,0.0,0.1,1.0,0,0,0.0,0.05,0.0,0.25,0.0,0.25,0.15,0.15,0.05,0.0,0.0,0.0,0.0,12.4</t>
+  </si>
+  <si>
+    <t>5.0,5.7,0.25,0.81,0.31,0.5,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.4,0.0,0.1,0.0,0.0,0.1,0.0,0.0,0.0,0.0,18.67,14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48</t>
+  </si>
+  <si>
+    <t>16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62,12.5,6.0,0.62,0.81,0.77,0.0,16.41,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.28,0.04,0.04,0.04,0.0,0.0,0.25,0.25,12.1</t>
   </si>
   <si>
     <t>s!</t>
@@ -417,10 +417,10 @@
     <t>People would become fat!</t>
   </si>
   <si>
-    <t>104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0,77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25,345,0.0,19.76,0.0,0.0,2.0,0.0,0.0,0.0,0.05,0.25,0.2,0.06,0.25</t>
+    <t>22.0,4.73,0.54,0.4,1.35,0.0,10.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.14,0.0,0.0,0.09,0.0,0.0,0.0,0.0,3.57,5.5,7.0,0.27,0.81,0.34,0.0,18.91,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.27,0.18,0.09,0.09,0.09,0.0,0.0,0.0,0.0,0.0,19.5</t>
+  </si>
+  <si>
+    <t>16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62,13.67,8.41,1.02,1.21,0.84,0.0,19.76,0.0,0.0,2.0,9,0,0.0,0.0,0.0,0.27,0.17,0.12,0.07,0.07,0.1,0.07,0.14,0.25,0.25,8.0</t>
   </si>
   <si>
     <t>er</t>
@@ -429,10 +429,10 @@
     <t>and energy during their production processes, which makes their ecological impact far more detrimental than that of bottled water." http://www.democraticunderground.com/discuss/duboard.php?az=view_all&amp;address;=103x347180</t>
   </si>
   <si>
-    <t>57,0.5,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25,245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0</t>
+    <t>5.0,5.7,0.25,0.81,0.31,0.5,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.4,0.0,0.1,0.0,0.0,0.1,0.0,0.0,0.0,0.0,18.67,22.0,4.73,0.54,0.4,1.35,0.0,10.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.14,0.0,0.0,0.09,0.0,0.0,0.0,0.0,3.57</t>
+  </si>
+  <si>
+    <t>16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62,9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82</t>
   </si>
   <si>
     <t>i</t>
@@ -441,22 +441,22 @@
     <t>ts like 3 bucks for one of those big packs at shaws. that will keep you un-thirsty for a couple weeks for pocket change.</t>
   </si>
   <si>
-    <t>143,0.0,15.17,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0,419,0.67,14.39,0.0,0.03,1.0,0.0,0.0,0.0,0.35,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>667,0.14,20.22,0.0,0.01,1.14,0.0,0.02,0.0,0.3,0.3,0.35,0.19,0.0,77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>224,0.25,13.33,0.0,0.04,1.5,0.0,0.04,0.0,0.15,0.2,0.2,0.06,0.0,97,0.0,15.32,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,224,0.25,13.33,0.0,0.04,1.5,0.0,0.04,0.0,0.15,0.2,0.2,0.06,0.0</t>
-  </si>
-  <si>
-    <t>72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0,272,0.0,17.19,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0,371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>26.0,5.5,0.64,0.4,1.6,0.0,15.17,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.08,0.0,0.0,0.08,0.0,0.0,0.0,0.0,11.45,25.67,5.44,1.91,1.21,1.58,0.67,14.39,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.17,0.08,0.08,0.08,0.03,0.1,0.0,0.0,9.53</t>
+  </si>
+  <si>
+    <t>14.0,6.81,2.43,2.82,0.86,0.14,20.22,0.0,0.01,1.14,6,1,0.0,0.02,2.7,0.3,0.06,0.17,0.03,0.03,0.01,0.06,0.14,0.0,0.0,3.74,5.5,7.0,0.27,0.81,0.34,0.0,18.91,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.27,0.18,0.09,0.09,0.09,0.0,0.0,0.0,0.0,0.0,19.5</t>
+  </si>
+  <si>
+    <t>6.5,8.62,0.64,1.61,0.4,0.25,13.33,0.0,0.04,1.5,6,1,0.0,0.04,0.0,0.19,0.23,0.15,0.04,0.04,0.08,0.04,0.0,0.0,0.0,14.13,17.0,5.71,0.42,0.4,1.04,0.0,15.32,0.0,0.12,1.0,0,0,0.0,0.0,1.35,0.35,0.06,0.29,0.12,0.12,0.0,0.06,0.0,0.0,0.0,14.5</t>
+  </si>
+  <si>
+    <t>19.0,7.0,0.47,0.4,1.17,0.0,21.02,0.0,0.21,0.0,0,0,0.0,0.05,8.11,0.47,0.11,0.11,0.0,0.0,0.0,0.0,0.0,0.25,0.25,5.46,6.5,8.62,0.64,1.61,0.4,0.25,13.33,0.0,0.04,1.5,6,1,0.0,0.04,0.0,0.19,0.23,0.15,0.04,0.04,0.08,0.04,0.0,0.0,0.0,14.13</t>
+  </si>
+  <si>
+    <t>15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0,15.0,6.04,1.11,1.21,0.92,0.0,17.19,0.0,0.0,1.0,2,1,0.0,0.02,2.7,0.27,0.11,0.24,0.09,0.09,0.02,0.07,0.14,0.0,0.0,6.89</t>
+  </si>
+  <si>
+    <t>13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82,36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52</t>
   </si>
   <si>
     <t>ed</t>
@@ -465,13 +465,13 @@
     <t>and my only option for water is the ocean that I wouldn't drink from..I have two options, pass out from the heat and lack of water and waste the rest of my day sick/in the hospital..or drink out of a WATER BOTTLEE</t>
   </si>
   <si>
-    <t>68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0,69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2,12.0,5.75,0.3,0.4,0.74,0.0,15.05,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.33,0.17,0.17,0.0,0.0,0.08,0.0,0.0,0.0,0.0,16.71</t>
   </si>
   <si>
     <t>arg219266</t>
   </si>
   <si>
-    <t>741,0.0,18.31,0.0,0.03,1.33,0.0,0.01,0.0,0.05,0.1,0.1,0.25,0.25,457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0</t>
+    <t>17.67,6.99,2.63,2.42,1.09,0.0,18.31,0.0,0.03,1.33,3,0,0.0,0.01,1.35,0.29,0.08,0.15,0.04,0.04,0.1,0.08,0.29,0.25,0.25,3.36,14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48</t>
   </si>
   <si>
     <t>an</t>
@@ -480,49 +480,49 @@
     <t>d consulting done by the Beverage Marketing Corporation, the global bottled water industry has exploded to over $35 billion. Americans alone paid $7.7 billion for bottled water in 2002. In 2001, for example globally bottled water companies produced over 130,000 million liters of water. This produced roughly 35,000 million dollars in revenue for the world's thousands of bottled water companies in 2001.</t>
   </si>
   <si>
-    <t>279,0.67,19.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.06,0.0,57,0.5,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0,143,0.0,15.17,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,419,0.67,14.39,0.0,0.03,1.0,0.0,0.0,0.0,0.35,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>67,0.0,12.23,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0,69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>67,0.0,12.23,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0,681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25</t>
-  </si>
-  <si>
-    <t>57,0.0,14.17,0.0,0.1,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25</t>
-  </si>
-  <si>
-    <t>57,0.5,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0,371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0</t>
-  </si>
-  <si>
-    <t>345,0.0,19.76,0.0,0.0,2.0,0.0,0.0,0.0,0.05,0.25,0.2,0.06,0.25,73,0.0,14.94,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>667,0.14,20.22,0.0,0.01,1.14,0.0,0.02,0.0,0.3,0.3,0.35,0.19,0.0,57,0.5,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.0,15.05,0.0,0.1,1.0,0.0,0.05,0.0,0.2,0.25,0.25,0.0,0.0,419,0.67,14.39,0.0,0.03,1.0,0.0,0.0,0.0,0.35,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>272,0.0,17.19,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.15,0.15,0.0,0.0,143,0.0,15.17,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25,104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>741,0.0,18.31,0.0,0.03,1.33,0.0,0.01,0.0,0.05,0.1,0.1,0.25,0.25,68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0</t>
+    <t>14.33,6.49,1.07,1.21,0.88,0.67,19.74,0.0,0.0,1.0,0,0,0.0,0.0,2.7,0.23,0.14,0.19,0.07,0.07,0.02,0.07,0.1,0.0,0.0,6.24,5.0,5.7,0.25,0.81,0.31,0.5,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.4,0.0,0.1,0.0,0.0,0.1,0.0,0.0,0.0,0.0,18.67</t>
+  </si>
+  <si>
+    <t>14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48,26.0,5.5,0.64,0.4,1.6,0.0,15.17,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.08,0.0,0.0,0.08,0.0,0.0,0.0,0.0,11.45</t>
+  </si>
+  <si>
+    <t>19.0,7.0,0.47,0.4,1.17,0.0,21.02,0.0,0.21,0.0,0,0,0.0,0.05,8.11,0.47,0.11,0.11,0.0,0.0,0.0,0.0,0.0,0.25,0.25,5.46,25.67,5.44,1.91,1.21,1.58,0.67,14.39,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.17,0.08,0.08,0.08,0.03,0.1,0.0,0.0,9.53</t>
+  </si>
+  <si>
+    <t>13.0,5.15,0.32,0.4,0.8,0.0,12.23,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.46,0.15,0.15,0.0,0.0,0.0,0.0,0.0,0.0,0.0,18.17,12.0,5.75,0.3,0.4,0.74,0.0,15.05,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.33,0.17,0.17,0.0,0.0,0.08,0.0,0.0,0.0,0.0,16.71</t>
+  </si>
+  <si>
+    <t>13.0,5.15,0.32,0.4,0.8,0.0,12.23,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.46,0.15,0.15,0.0,0.0,0.0,0.0,0.0,0.0,0.0,18.17,16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62</t>
+  </si>
+  <si>
+    <t>10.0,5.7,0.25,0.4,0.61,0.0,14.17,0.0,0.1,1.0,0,0,0.0,0.0,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.6,16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62</t>
+  </si>
+  <si>
+    <t>5.0,5.7,0.25,0.81,0.31,0.5,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.4,0.0,0.1,0.0,0.0,0.1,0.0,0.0,0.0,0.0,18.67,36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52</t>
+  </si>
+  <si>
+    <t>22.0,4.73,0.54,0.4,1.35,0.0,10.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.14,0.0,0.0,0.09,0.0,0.0,0.0,0.0,3.57,36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52</t>
+  </si>
+  <si>
+    <t>12.0,5.75,0.3,0.4,0.74,0.0,15.05,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.33,0.17,0.17,0.0,0.0,0.08,0.0,0.0,0.0,0.0,16.71,16.0,6.52,1.59,1.61,0.98,0.25,20.21,0.0,0.0,1.0,4,0,0.0,0.02,0.0,0.3,0.23,0.16,0.13,0.13,0.0,0.08,0.1,0.0,0.0,6.13</t>
+  </si>
+  <si>
+    <t>13.67,8.41,1.02,1.21,0.84,0.0,19.76,0.0,0.0,2.0,9,0,0.0,0.0,0.0,0.27,0.17,0.12,0.07,0.07,0.1,0.07,0.14,0.25,0.25,8.0,13.0,5.62,0.32,0.4,0.8,0.0,14.94,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.23,0.08,0.23,0.15,0.15,0.0,0.0,0.0,0.0,0.0,25.75</t>
+  </si>
+  <si>
+    <t>14.0,6.81,2.43,2.82,0.86,0.14,20.22,0.0,0.01,1.14,6,1,0.0,0.02,2.7,0.3,0.06,0.17,0.03,0.03,0.01,0.06,0.14,0.0,0.0,3.74,5.0,5.7,0.25,0.81,0.31,0.5,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.4,0.0,0.1,0.0,0.0,0.1,0.0,0.0,0.0,0.0,18.67</t>
+  </si>
+  <si>
+    <t>10.0,5.9,0.5,0.81,0.61,0.0,15.05,0.0,0.1,1.0,0,0,0.0,0.05,0.0,0.25,0.0,0.25,0.15,0.15,0.05,0.0,0.0,0.0,0.0,12.4,25.67,5.44,1.91,1.21,1.58,0.67,14.39,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.17,0.08,0.08,0.08,0.03,0.1,0.0,0.0,9.53</t>
+  </si>
+  <si>
+    <t>15.0,6.04,1.11,1.21,0.92,0.0,17.19,0.0,0.0,1.0,2,1,0.0,0.02,2.7,0.27,0.11,0.24,0.09,0.09,0.02,0.07,0.14,0.0,0.0,6.89,26.0,5.5,0.64,0.4,1.6,0.0,15.17,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.08,0.0,0.0,0.08,0.0,0.0,0.0,0.0,11.45</t>
+  </si>
+  <si>
+    <t>16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62,22.0,4.73,0.54,0.4,1.35,0.0,10.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.14,0.0,0.0,0.09,0.0,0.0,0.0,0.0,3.57</t>
+  </si>
+  <si>
+    <t>17.67,6.99,2.63,2.42,1.09,0.0,18.31,0.0,0.03,1.33,3,0,0.0,0.01,1.35,0.29,0.08,0.15,0.04,0.04,0.1,0.08,0.29,0.25,0.25,3.36,14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2</t>
   </si>
   <si>
     <t>es</t>
@@ -531,22 +531,22 @@
     <t>can be reused!</t>
   </si>
   <si>
-    <t>457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0,68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>272,0.0,17.19,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.15,0.15,0.0,0.0,68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25,133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25,644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,118,0.0,15.05,0.0,0.1,1.0,0.0,0.05,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25,224,0.25,13.33,0.0,0.04,1.5,0.0,0.04,0.0,0.15,0.2,0.2,0.06,0.0</t>
+    <t>14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48,14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>15.0,6.04,1.11,1.21,0.92,0.0,17.19,0.0,0.0,1.0,2,1,0.0,0.02,2.7,0.27,0.11,0.24,0.09,0.09,0.02,0.07,0.14,0.0,0.0,6.89,14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>12.5,6.0,0.62,0.81,0.77,0.0,16.41,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.28,0.04,0.04,0.04,0.0,0.0,0.25,0.25,12.1,19.0,7.0,0.47,0.4,1.17,0.0,21.02,0.0,0.21,0.0,0,0,0.0,0.05,8.11,0.47,0.11,0.11,0.0,0.0,0.0,0.0,0.0,0.25,0.25,5.46</t>
+  </si>
+  <si>
+    <t>12.5,6.0,0.62,0.81,0.77,0.0,16.41,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.28,0.04,0.04,0.04,0.0,0.0,0.25,0.25,12.1,13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82</t>
+  </si>
+  <si>
+    <t>5.5,7.0,0.27,0.81,0.34,0.0,18.91,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.27,0.18,0.09,0.09,0.09,0.0,0.0,0.0,0.0,0.0,19.5,10.0,5.9,0.5,0.81,0.61,0.0,15.05,0.0,0.1,1.0,0,0,0.0,0.05,0.0,0.25,0.0,0.25,0.15,0.15,0.05,0.0,0.0,0.0,0.0,12.4</t>
+  </si>
+  <si>
+    <t>16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62,6.5,8.62,0.64,1.61,0.4,0.25,13.33,0.0,0.04,1.5,6,1,0.0,0.04,0.0,0.19,0.23,0.15,0.04,0.04,0.08,0.04,0.0,0.0,0.0,14.13</t>
   </si>
   <si>
     <t>ec</t>
@@ -555,43 +555,43 @@
     <t>ycle because we do! &lt;br/&gt; http://www.treehugger.com/culture/23-percent-of-americans-donatmt-recycle.html</t>
   </si>
   <si>
-    <t>345,0.0,19.76,0.0,0.0,2.0,0.0,0.0,0.0,0.05,0.25,0.2,0.06,0.25,224,0.25,13.33,0.0,0.04,1.5,0.0,0.04,0.0,0.15,0.2,0.2,0.06,0.0</t>
-  </si>
-  <si>
-    <t>97,0.0,15.32,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,118,0.0,15.05,0.0,0.1,1.0,0.0,0.05,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0,143,0.0,15.17,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.5,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0,77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0,118,0.0,15.05,0.0,0.1,1.0,0.0,0.05,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0,104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0,72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.0,15.05,0.0,0.1,1.0,0.0,0.05,0.0,0.2,0.25,0.25,0.0,0.0,73,0.0,14.94,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.0,14.17,0.0,0.1,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,419,0.67,14.39,0.0,0.03,1.0,0.0,0.0,0.0,0.35,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,67,0.0,12.23,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>143,0.0,15.17,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0,681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25</t>
+    <t>13.67,8.41,1.02,1.21,0.84,0.0,19.76,0.0,0.0,2.0,9,0,0.0,0.0,0.0,0.27,0.17,0.12,0.07,0.07,0.1,0.07,0.14,0.25,0.25,8.0,6.5,8.62,0.64,1.61,0.4,0.25,13.33,0.0,0.04,1.5,6,1,0.0,0.04,0.0,0.19,0.23,0.15,0.04,0.04,0.08,0.04,0.0,0.0,0.0,14.13</t>
+  </si>
+  <si>
+    <t>17.0,5.71,0.42,0.4,1.04,0.0,15.32,0.0,0.12,1.0,0,0,0.0,0.0,1.35,0.35,0.06,0.29,0.12,0.12,0.0,0.06,0.0,0.0,0.0,14.5,10.0,5.9,0.5,0.81,0.61,0.0,15.05,0.0,0.1,1.0,0,0,0.0,0.05,0.0,0.25,0.0,0.25,0.15,0.15,0.05,0.0,0.0,0.0,0.0,12.4</t>
+  </si>
+  <si>
+    <t>14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2,26.0,5.5,0.64,0.4,1.6,0.0,15.17,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.08,0.0,0.0,0.08,0.0,0.0,0.0,0.0,11.45</t>
+  </si>
+  <si>
+    <t>5.0,5.7,0.25,0.81,0.31,0.5,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.4,0.0,0.1,0.0,0.0,0.1,0.0,0.0,0.0,0.0,18.67,14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82,5.5,7.0,0.27,0.81,0.34,0.0,18.91,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.27,0.18,0.09,0.09,0.09,0.0,0.0,0.0,0.0,0.0,19.5</t>
+  </si>
+  <si>
+    <t>14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48,10.0,5.9,0.5,0.81,0.61,0.0,15.05,0.0,0.1,1.0,0,0,0.0,0.05,0.0,0.25,0.0,0.25,0.15,0.15,0.05,0.0,0.0,0.0,0.0,12.4</t>
+  </si>
+  <si>
+    <t>13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82,22.0,4.73,0.54,0.4,1.35,0.0,10.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.14,0.0,0.0,0.09,0.0,0.0,0.0,0.0,3.57</t>
+  </si>
+  <si>
+    <t>12.0,5.75,0.3,0.4,0.74,0.0,15.05,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.33,0.17,0.17,0.0,0.0,0.08,0.0,0.0,0.0,0.0,16.71,36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52</t>
+  </si>
+  <si>
+    <t>22.0,4.73,0.54,0.4,1.35,0.0,10.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.14,0.0,0.0,0.09,0.0,0.0,0.0,0.0,3.57,15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0</t>
+  </si>
+  <si>
+    <t>10.0,5.9,0.5,0.81,0.61,0.0,15.05,0.0,0.1,1.0,0,0,0.0,0.05,0.0,0.25,0.0,0.25,0.15,0.15,0.05,0.0,0.0,0.0,0.0,12.4,13.0,5.62,0.32,0.4,0.8,0.0,14.94,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.23,0.08,0.23,0.15,0.15,0.0,0.0,0.0,0.0,0.0,25.75</t>
+  </si>
+  <si>
+    <t>10.0,5.7,0.25,0.4,0.61,0.0,14.17,0.0,0.1,1.0,0,0,0.0,0.0,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.6,25.67,5.44,1.91,1.21,1.58,0.67,14.39,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.17,0.08,0.08,0.08,0.03,0.1,0.0,0.0,9.53</t>
+  </si>
+  <si>
+    <t>19.0,7.0,0.47,0.4,1.17,0.0,21.02,0.0,0.21,0.0,0,0,0.0,0.05,8.11,0.47,0.11,0.11,0.0,0.0,0.0,0.0,0.0,0.25,0.25,5.46,13.0,5.15,0.32,0.4,0.8,0.0,12.23,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.46,0.15,0.15,0.0,0.0,0.0,0.0,0.0,0.0,0.0,18.17</t>
+  </si>
+  <si>
+    <t>26.0,5.5,0.64,0.4,1.6,0.0,15.17,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.08,0.0,0.0,0.08,0.0,0.0,0.0,0.0,11.45,16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62</t>
   </si>
   <si>
     <t>/d</t>
@@ -600,61 +600,61 @@
     <t>rinking/bottled/)</t>
   </si>
   <si>
-    <t>72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0,143,0.0,15.17,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.0,14.17,0.0,0.1,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,272,0.0,17.19,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>272,0.0,17.19,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.15,0.15,0.0,0.0,57,0.5,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>97,0.0,15.32,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>143,0.0,15.17,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0,345,0.0,19.76,0.0,0.0,2.0,0.0,0.0,0.0,0.05,0.25,0.2,0.06,0.25</t>
-  </si>
-  <si>
-    <t>69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25</t>
-  </si>
-  <si>
-    <t>72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0,73,0.0,14.94,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>419,0.67,14.39,0.0,0.03,1.0,0.0,0.0,0.0,0.35,0.3,0.35,0.0,0.0,224,0.25,13.33,0.0,0.04,1.5,0.0,0.04,0.0,0.15,0.2,0.2,0.06,0.0</t>
-  </si>
-  <si>
-    <t>345,0.0,19.76,0.0,0.0,2.0,0.0,0.0,0.0,0.05,0.25,0.2,0.06,0.25,97,0.0,15.32,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,272,0.0,17.19,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.5,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,143,0.0,15.17,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25,97,0.0,15.32,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.0,15.05,0.0,0.1,1.0,0.0,0.05,0.0,0.2,0.25,0.25,0.0,0.0,68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0,57,0.0,14.17,0.0,0.1,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25,417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,419,0.67,14.39,0.0,0.03,1.0,0.0,0.0,0.0,0.35,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,14.94,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25</t>
-  </si>
-  <si>
-    <t>97,0.0,15.32,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0</t>
-  </si>
-  <si>
-    <t>272,0.0,17.19,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.15,0.15,0.0,0.0,644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0</t>
+    <t>15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0,26.0,5.5,0.64,0.4,1.6,0.0,15.17,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.08,0.0,0.0,0.08,0.0,0.0,0.0,0.0,11.45</t>
+  </si>
+  <si>
+    <t>10.0,5.7,0.25,0.4,0.61,0.0,14.17,0.0,0.1,1.0,0,0,0.0,0.0,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.6,15.0,6.04,1.11,1.21,0.92,0.0,17.19,0.0,0.0,1.0,2,1,0.0,0.02,2.7,0.27,0.11,0.24,0.09,0.09,0.02,0.07,0.14,0.0,0.0,6.89</t>
+  </si>
+  <si>
+    <t>15.0,6.04,1.11,1.21,0.92,0.0,17.19,0.0,0.0,1.0,2,1,0.0,0.02,2.7,0.27,0.11,0.24,0.09,0.09,0.02,0.07,0.14,0.0,0.0,6.89,5.0,5.7,0.25,0.81,0.31,0.5,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.4,0.0,0.1,0.0,0.0,0.1,0.0,0.0,0.0,0.0,18.67</t>
+  </si>
+  <si>
+    <t>17.0,5.71,0.42,0.4,1.04,0.0,15.32,0.0,0.12,1.0,0,0,0.0,0.0,1.35,0.35,0.06,0.29,0.12,0.12,0.0,0.06,0.0,0.0,0.0,14.5,9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82</t>
+  </si>
+  <si>
+    <t>26.0,5.5,0.64,0.4,1.6,0.0,15.17,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.08,0.0,0.0,0.08,0.0,0.0,0.0,0.0,11.45,13.67,8.41,1.02,1.21,0.84,0.0,19.76,0.0,0.0,2.0,9,0,0.0,0.0,0.0,0.27,0.17,0.12,0.07,0.07,0.1,0.07,0.14,0.25,0.25,8.0</t>
+  </si>
+  <si>
+    <t>12.0,5.75,0.3,0.4,0.74,0.0,15.05,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.33,0.17,0.17,0.0,0.0,0.08,0.0,0.0,0.0,0.0,16.71,16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62</t>
+  </si>
+  <si>
+    <t>15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0,13.0,5.62,0.32,0.4,0.8,0.0,14.94,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.23,0.08,0.23,0.15,0.15,0.0,0.0,0.0,0.0,0.0,25.75</t>
+  </si>
+  <si>
+    <t>25.67,5.44,1.91,1.21,1.58,0.67,14.39,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.17,0.08,0.08,0.08,0.03,0.1,0.0,0.0,9.53,6.5,8.62,0.64,1.61,0.4,0.25,13.33,0.0,0.04,1.5,6,1,0.0,0.04,0.0,0.19,0.23,0.15,0.04,0.04,0.08,0.04,0.0,0.0,0.0,14.13</t>
+  </si>
+  <si>
+    <t>13.67,8.41,1.02,1.21,0.84,0.0,19.76,0.0,0.0,2.0,9,0,0.0,0.0,0.0,0.27,0.17,0.12,0.07,0.07,0.1,0.07,0.14,0.25,0.25,8.0,17.0,5.71,0.42,0.4,1.04,0.0,15.32,0.0,0.12,1.0,0,0,0.0,0.0,1.35,0.35,0.06,0.29,0.12,0.12,0.0,0.06,0.0,0.0,0.0,14.5</t>
+  </si>
+  <si>
+    <t>5.5,7.0,0.27,0.81,0.34,0.0,18.91,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.27,0.18,0.09,0.09,0.09,0.0,0.0,0.0,0.0,0.0,19.5,15.0,6.04,1.11,1.21,0.92,0.0,17.19,0.0,0.0,1.0,2,1,0.0,0.02,2.7,0.27,0.11,0.24,0.09,0.09,0.02,0.07,0.14,0.0,0.0,6.89</t>
+  </si>
+  <si>
+    <t>5.0,5.7,0.25,0.81,0.31,0.5,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.4,0.0,0.1,0.0,0.0,0.1,0.0,0.0,0.0,0.0,18.67,26.0,5.5,0.64,0.4,1.6,0.0,15.17,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.08,0.0,0.0,0.08,0.0,0.0,0.0,0.0,11.45</t>
+  </si>
+  <si>
+    <t>13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6,17.0,5.71,0.42,0.4,1.04,0.0,15.32,0.0,0.12,1.0,0,0,0.0,0.0,1.35,0.35,0.06,0.29,0.12,0.12,0.0,0.06,0.0,0.0,0.0,14.5</t>
+  </si>
+  <si>
+    <t>10.0,5.9,0.5,0.81,0.61,0.0,15.05,0.0,0.1,1.0,0,0,0.0,0.05,0.0,0.25,0.0,0.25,0.15,0.15,0.05,0.0,0.0,0.0,0.0,12.4,14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82,10.0,5.7,0.25,0.4,0.61,0.0,14.17,0.0,0.1,1.0,0,0,0.0,0.0,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>12.5,6.0,0.62,0.81,0.77,0.0,16.41,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.28,0.04,0.04,0.04,0.0,0.0,0.25,0.25,12.1,16.0,6.52,1.59,1.61,0.98,0.25,20.21,0.0,0.0,1.0,4,0,0.0,0.02,0.0,0.3,0.23,0.16,0.13,0.13,0.0,0.08,0.1,0.0,0.0,6.13</t>
+  </si>
+  <si>
+    <t>5.5,7.0,0.27,0.81,0.34,0.0,18.91,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.27,0.18,0.09,0.09,0.09,0.0,0.0,0.0,0.0,0.0,19.5,25.67,5.44,1.91,1.21,1.58,0.67,14.39,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.17,0.08,0.08,0.08,0.03,0.1,0.0,0.0,9.53</t>
+  </si>
+  <si>
+    <t>13.0,5.62,0.32,0.4,0.8,0.0,14.94,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.23,0.08,0.23,0.15,0.15,0.0,0.0,0.0,0.0,0.0,25.75,12.5,6.0,0.62,0.81,0.77,0.0,16.41,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.28,0.04,0.04,0.04,0.0,0.0,0.25,0.25,12.1</t>
+  </si>
+  <si>
+    <t>17.0,5.71,0.42,0.4,1.04,0.0,15.32,0.0,0.12,1.0,0,0,0.0,0.0,1.35,0.35,0.06,0.29,0.12,0.12,0.0,0.06,0.0,0.0,0.0,14.5,14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48</t>
+  </si>
+  <si>
+    <t>15.0,6.04,1.11,1.21,0.92,0.0,17.19,0.0,0.0,1.0,2,1,0.0,0.02,2.7,0.27,0.11,0.24,0.09,0.09,0.02,0.07,0.14,0.0,0.0,6.89,13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82</t>
   </si>
   <si>
     <t>r/</t>
@@ -663,7 +663,7 @@
     <t>&gt; http://www.nestlewaterscorporate.com/bottled_water_things_to_know/Video/index.html?@videoList.featured=31101711001</t>
   </si>
   <si>
-    <t>245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0,741,0.0,18.31,0.0,0.03,1.33,0.0,0.01,0.0,0.05,0.1,0.1,0.25,0.25</t>
+    <t>9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82,17.67,6.99,2.63,2.42,1.09,0.0,18.31,0.0,0.03,1.33,3,0,0.0,0.01,1.35,0.29,0.08,0.15,0.04,0.04,0.1,0.08,0.29,0.25,0.25,3.36</t>
   </si>
   <si>
     <t>ry</t>
@@ -672,46 +672,46 @@
     <t>year, we screen for over 200 possible contaminants-far more than state and federal regulations require."-nuff said &lt;br/&gt; http://delivery.polandspring.com/Delivery/home/help/OurWater.aspx</t>
   </si>
   <si>
-    <t>272,0.0,17.19,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.15,0.15,0.0,0.0,150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25</t>
-  </si>
-  <si>
-    <t>69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0,245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0,104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>345,0.0,19.76,0.0,0.0,2.0,0.0,0.0,0.0,0.05,0.25,0.2,0.06,0.25,72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0,77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.5,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0,68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>224,0.25,13.33,0.0,0.04,1.5,0.0,0.04,0.0,0.15,0.2,0.2,0.06,0.0,69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0,396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25</t>
-  </si>
-  <si>
-    <t>345,0.0,19.76,0.0,0.0,2.0,0.0,0.0,0.0,0.05,0.25,0.2,0.06,0.25,133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25,224,0.25,13.33,0.0,0.04,1.5,0.0,0.04,0.0,0.15,0.2,0.2,0.06,0.0</t>
-  </si>
-  <si>
-    <t>133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0</t>
-  </si>
-  <si>
-    <t>667,0.14,20.22,0.0,0.01,1.14,0.0,0.02,0.0,0.3,0.3,0.35,0.19,0.0,245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0</t>
+    <t>15.0,6.04,1.11,1.21,0.92,0.0,17.19,0.0,0.0,1.0,2,1,0.0,0.02,2.7,0.27,0.11,0.24,0.09,0.09,0.02,0.07,0.14,0.0,0.0,6.89,12.5,6.0,0.62,0.81,0.77,0.0,16.41,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.28,0.04,0.04,0.04,0.0,0.0,0.25,0.25,12.1</t>
+  </si>
+  <si>
+    <t>12.0,5.75,0.3,0.4,0.74,0.0,15.05,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.33,0.17,0.17,0.0,0.0,0.08,0.0,0.0,0.0,0.0,16.71,22.0,4.73,0.54,0.4,1.35,0.0,10.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.14,0.0,0.0,0.09,0.0,0.0,0.0,0.0,3.57</t>
+  </si>
+  <si>
+    <t>14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2,9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82</t>
+  </si>
+  <si>
+    <t>14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48,22.0,4.73,0.54,0.4,1.35,0.0,10.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.14,0.0,0.0,0.09,0.0,0.0,0.0,0.0,3.57</t>
+  </si>
+  <si>
+    <t>13.67,8.41,1.02,1.21,0.84,0.0,19.76,0.0,0.0,2.0,9,0,0.0,0.0,0.0,0.27,0.17,0.12,0.07,0.07,0.1,0.07,0.14,0.25,0.25,8.0,15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0</t>
+  </si>
+  <si>
+    <t>14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2,5.5,7.0,0.27,0.81,0.34,0.0,18.91,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.27,0.18,0.09,0.09,0.09,0.0,0.0,0.0,0.0,0.0,19.5</t>
+  </si>
+  <si>
+    <t>5.0,5.7,0.25,0.81,0.31,0.5,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.4,0.0,0.1,0.0,0.0,0.1,0.0,0.0,0.0,0.0,18.67,19.0,7.0,0.47,0.4,1.17,0.0,21.02,0.0,0.21,0.0,0,0,0.0,0.05,8.11,0.47,0.11,0.11,0.0,0.0,0.0,0.0,0.0,0.25,0.25,5.46</t>
+  </si>
+  <si>
+    <t>13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82,14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>6.5,8.62,0.64,1.61,0.4,0.25,13.33,0.0,0.04,1.5,6,1,0.0,0.04,0.0,0.19,0.23,0.15,0.04,0.04,0.08,0.04,0.0,0.0,0.0,14.13,12.0,5.75,0.3,0.4,0.74,0.0,15.05,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.33,0.17,0.17,0.0,0.0,0.08,0.0,0.0,0.0,0.0,16.71</t>
+  </si>
+  <si>
+    <t>9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82,13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6</t>
+  </si>
+  <si>
+    <t>13.67,8.41,1.02,1.21,0.84,0.0,19.76,0.0,0.0,2.0,9,0,0.0,0.0,0.0,0.27,0.17,0.12,0.07,0.07,0.1,0.07,0.14,0.25,0.25,8.0,19.0,7.0,0.47,0.4,1.17,0.0,21.02,0.0,0.21,0.0,0,0,0.0,0.05,8.11,0.47,0.11,0.11,0.0,0.0,0.0,0.0,0.0,0.25,0.25,5.46</t>
+  </si>
+  <si>
+    <t>12.5,6.0,0.62,0.81,0.77,0.0,16.41,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.28,0.04,0.04,0.04,0.0,0.0,0.25,0.25,12.1,6.5,8.62,0.64,1.61,0.4,0.25,13.33,0.0,0.04,1.5,6,1,0.0,0.04,0.0,0.19,0.23,0.15,0.04,0.04,0.08,0.04,0.0,0.0,0.0,14.13</t>
+  </si>
+  <si>
+    <t>19.0,7.0,0.47,0.4,1.17,0.0,21.02,0.0,0.21,0.0,0,0,0.0,0.05,8.11,0.47,0.11,0.11,0.0,0.0,0.0,0.0,0.0,0.25,0.25,5.46,14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48</t>
+  </si>
+  <si>
+    <t>14.0,6.81,2.43,2.82,0.86,0.14,20.22,0.0,0.01,1.14,6,1,0.0,0.02,2.7,0.3,0.06,0.17,0.03,0.03,0.01,0.06,0.14,0.0,0.0,3.74,9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82</t>
   </si>
   <si>
     <t>s</t>
@@ -720,22 +720,22 @@
     <t>for one of those big packs at shaws. that will keep you un-thirsty for a couple weeks for pocket change.</t>
   </si>
   <si>
-    <t>396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25,133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>272,0.0,17.19,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.15,0.15,0.0,0.0,67,0.0,12.23,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.0,14.17,0.0,0.1,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,345,0.0,19.76,0.0,0.0,2.0,0.0,0.0,0.0,0.05,0.25,0.2,0.06,0.25</t>
-  </si>
-  <si>
-    <t>104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0,143,0.0,15.17,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.0,14.17,0.0,0.1,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25,417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0</t>
+    <t>13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6,19.0,7.0,0.47,0.4,1.17,0.0,21.02,0.0,0.21,0.0,0,0,0.0,0.05,8.11,0.47,0.11,0.11,0.0,0.0,0.0,0.0,0.0,0.25,0.25,5.46</t>
+  </si>
+  <si>
+    <t>15.0,6.04,1.11,1.21,0.92,0.0,17.19,0.0,0.0,1.0,2,1,0.0,0.02,2.7,0.27,0.11,0.24,0.09,0.09,0.02,0.07,0.14,0.0,0.0,6.89,13.0,5.15,0.32,0.4,0.8,0.0,12.23,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.46,0.15,0.15,0.0,0.0,0.0,0.0,0.0,0.0,0.0,18.17</t>
+  </si>
+  <si>
+    <t>10.0,5.7,0.25,0.4,0.61,0.0,14.17,0.0,0.1,1.0,0,0,0.0,0.0,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.6,13.67,8.41,1.02,1.21,0.84,0.0,19.76,0.0,0.0,2.0,9,0,0.0,0.0,0.0,0.27,0.17,0.12,0.07,0.07,0.1,0.07,0.14,0.25,0.25,8.0</t>
+  </si>
+  <si>
+    <t>22.0,4.73,0.54,0.4,1.35,0.0,10.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.14,0.0,0.0,0.09,0.0,0.0,0.0,0.0,3.57,26.0,5.5,0.64,0.4,1.6,0.0,15.17,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.08,0.0,0.0,0.08,0.0,0.0,0.0,0.0,11.45</t>
+  </si>
+  <si>
+    <t>10.0,5.7,0.25,0.4,0.61,0.0,14.17,0.0,0.1,1.0,0,0,0.0,0.0,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.6,12.0,5.75,0.3,0.4,0.74,0.0,15.05,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.33,0.17,0.17,0.0,0.0,0.08,0.0,0.0,0.0,0.0,16.71</t>
+  </si>
+  <si>
+    <t>16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62,16.0,6.52,1.59,1.61,0.98,0.25,20.21,0.0,0.0,1.0,4,0,0.0,0.02,0.0,0.3,0.23,0.16,0.13,0.13,0.0,0.08,0.1,0.0,0.0,6.13</t>
   </si>
   <si>
     <t>go</t>
@@ -744,7 +744,7 @@
     <t>vernment programs regularly disperse bottled water for various reasons. Distributing small bottles of water is much easier than distributing large bulk storages of water. Also contamination from large water storage containers is much more likely than from single 12-20 ounce bottles of water.</t>
   </si>
   <si>
-    <t>77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,741,0.0,18.31,0.0,0.03,1.33,0.0,0.01,0.0,0.05,0.1,0.1,0.25,0.25</t>
+    <t>5.5,7.0,0.27,0.81,0.34,0.0,18.91,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.27,0.18,0.09,0.09,0.09,0.0,0.0,0.0,0.0,0.0,19.5,17.67,6.99,2.63,2.42,1.09,0.0,18.31,0.0,0.03,1.33,3,0,0.0,0.01,1.35,0.29,0.08,0.15,0.04,0.04,0.1,0.08,0.29,0.25,0.25,3.36</t>
   </si>
   <si>
     <t>me</t>
@@ -753,7 +753,7 @@
     <t>/help/OurWater.aspx</t>
   </si>
   <si>
-    <t>741,0.0,18.31,0.0,0.03,1.33,0.0,0.01,0.0,0.05,0.1,0.1,0.25,0.25,72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0</t>
+    <t>17.67,6.99,2.63,2.42,1.09,0.0,18.31,0.0,0.03,1.33,3,0,0.0,0.01,1.35,0.29,0.08,0.15,0.04,0.04,0.1,0.08,0.29,0.25,0.25,3.36,15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0</t>
   </si>
   <si>
     <t>ut</t>
@@ -762,13 +762,13 @@
     <t>of this recession!</t>
   </si>
   <si>
-    <t>73,0.0,14.94,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.5,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25,667,0.14,20.22,0.0,0.01,1.14,0.0,0.02,0.0,0.3,0.3,0.35,0.19,0.0</t>
+    <t>13.0,5.62,0.32,0.4,0.8,0.0,14.94,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.23,0.08,0.23,0.15,0.15,0.0,0.0,0.0,0.0,0.0,25.75,14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>5.0,5.7,0.25,0.81,0.31,0.5,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.4,0.0,0.1,0.0,0.0,0.1,0.0,0.0,0.0,0.0,18.67,9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82</t>
+  </si>
+  <si>
+    <t>12.5,6.0,0.62,0.81,0.77,0.0,16.41,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.28,0.04,0.04,0.04,0.0,0.0,0.25,0.25,12.1,14.0,6.81,2.43,2.82,0.86,0.14,20.22,0.0,0.01,1.14,6,1,0.0,0.02,2.7,0.3,0.06,0.17,0.03,0.03,0.01,0.06,0.14,0.0,0.0,3.74</t>
   </si>
   <si>
     <t>d-</t>
@@ -777,7 +777,7 @@
     <t>water/ )</t>
   </si>
   <si>
-    <t>143,0.0,15.17,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0,741,0.0,18.31,0.0,0.03,1.33,0.0,0.01,0.0,0.05,0.1,0.1,0.25,0.25</t>
+    <t>26.0,5.5,0.64,0.4,1.6,0.0,15.17,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.08,0.0,0.0,0.08,0.0,0.0,0.0,0.0,11.45,17.67,6.99,2.63,2.42,1.09,0.0,18.31,0.0,0.03,1.33,3,0,0.0,0.01,1.35,0.29,0.08,0.15,0.04,0.04,0.1,0.08,0.29,0.25,0.25,3.36</t>
   </si>
   <si>
     <t>e.</t>
@@ -786,25 +786,25 @@
     <t>"-nuff said &lt;br/&gt; http://delivery.polandspring.com/Delivery/home/help/OurWater.aspx</t>
   </si>
   <si>
-    <t>224,0.25,13.33,0.0,0.04,1.5,0.0,0.04,0.0,0.15,0.2,0.2,0.06,0.0,57,0.5,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0,57,0.0,14.17,0.0,0.1,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>279,0.67,19.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.06,0.0,143,0.0,15.17,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>97,0.0,15.32,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,67,0.0,12.23,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0,57,0.5,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0,667,0.14,20.22,0.0,0.01,1.14,0.0,0.02,0.0,0.3,0.3,0.35,0.19,0.0</t>
-  </si>
-  <si>
-    <t>345,0.0,19.76,0.0,0.0,2.0,0.0,0.0,0.0,0.05,0.25,0.2,0.06,0.25,644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0</t>
+    <t>6.5,8.62,0.64,1.61,0.4,0.25,13.33,0.0,0.04,1.5,6,1,0.0,0.04,0.0,0.19,0.23,0.15,0.04,0.04,0.08,0.04,0.0,0.0,0.0,14.13,5.0,5.7,0.25,0.81,0.31,0.5,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.4,0.0,0.1,0.0,0.0,0.1,0.0,0.0,0.0,0.0,18.67</t>
+  </si>
+  <si>
+    <t>16.0,6.52,1.59,1.61,0.98,0.25,20.21,0.0,0.0,1.0,4,0,0.0,0.02,0.0,0.3,0.23,0.16,0.13,0.13,0.0,0.08,0.1,0.0,0.0,6.13,10.0,5.7,0.25,0.4,0.61,0.0,14.17,0.0,0.1,1.0,0,0,0.0,0.0,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>14.33,6.49,1.07,1.21,0.88,0.67,19.74,0.0,0.0,1.0,0,0,0.0,0.0,2.7,0.23,0.14,0.19,0.07,0.07,0.02,0.07,0.1,0.0,0.0,6.24,26.0,5.5,0.64,0.4,1.6,0.0,15.17,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.08,0.0,0.0,0.08,0.0,0.0,0.0,0.0,11.45</t>
+  </si>
+  <si>
+    <t>17.0,5.71,0.42,0.4,1.04,0.0,15.32,0.0,0.12,1.0,0,0,0.0,0.0,1.35,0.35,0.06,0.29,0.12,0.12,0.0,0.06,0.0,0.0,0.0,14.5,13.0,5.15,0.32,0.4,0.8,0.0,12.23,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.46,0.15,0.15,0.0,0.0,0.0,0.0,0.0,0.0,0.0,18.17</t>
+  </si>
+  <si>
+    <t>16.0,6.52,1.59,1.61,0.98,0.25,20.21,0.0,0.0,1.0,4,0,0.0,0.02,0.0,0.3,0.23,0.16,0.13,0.13,0.0,0.08,0.1,0.0,0.0,6.13,5.0,5.7,0.25,0.81,0.31,0.5,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.4,0.0,0.1,0.0,0.0,0.1,0.0,0.0,0.0,0.0,18.67</t>
+  </si>
+  <si>
+    <t>15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0,14.0,6.81,2.43,2.82,0.86,0.14,20.22,0.0,0.01,1.14,6,1,0.0,0.02,2.7,0.3,0.06,0.17,0.03,0.03,0.01,0.06,0.14,0.0,0.0,3.74</t>
+  </si>
+  <si>
+    <t>13.67,8.41,1.02,1.21,0.84,0.0,19.76,0.0,0.0,2.0,9,0,0.0,0.0,0.0,0.27,0.17,0.12,0.07,0.07,0.1,0.07,0.14,0.25,0.25,8.0,13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82</t>
   </si>
   <si>
     <t>os</t>
@@ -813,79 +813,79 @@
     <t>t recycled container in curb side programs by weight and by number! &lt;br/&gt; http://www.nestlewaterscorporate.com/bottled_water_things_to_know/Video/index.html?@videoList.featured=31101711001</t>
   </si>
   <si>
-    <t>68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0,419,0.67,14.39,0.0,0.03,1.0,0.0,0.0,0.0,0.35,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.0,15.05,0.0,0.1,1.0,0.0,0.05,0.0,0.2,0.25,0.25,0.0,0.0,417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0</t>
-  </si>
-  <si>
-    <t>69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0</t>
-  </si>
-  <si>
-    <t>72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0,417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25</t>
-  </si>
-  <si>
-    <t>272,0.0,17.19,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.15,0.15,0.0,0.0,224,0.25,13.33,0.0,0.04,1.5,0.0,0.04,0.0,0.15,0.2,0.2,0.06,0.0</t>
-  </si>
-  <si>
-    <t>224,0.25,13.33,0.0,0.04,1.5,0.0,0.04,0.0,0.15,0.2,0.2,0.06,0.0,67,0.0,12.23,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,667,0.14,20.22,0.0,0.01,1.14,0.0,0.02,0.0,0.3,0.3,0.35,0.19,0.0</t>
-  </si>
-  <si>
-    <t>150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25,419,0.67,14.39,0.0,0.03,1.0,0.0,0.0,0.0,0.35,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0,417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0</t>
-  </si>
-  <si>
-    <t>150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25,68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>667,0.14,20.22,0.0,0.01,1.14,0.0,0.02,0.0,0.3,0.3,0.35,0.19,0.0,118,0.0,15.05,0.0,0.1,1.0,0.0,0.05,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,118,0.0,15.05,0.0,0.1,1.0,0.0,0.05,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>67,0.0,12.23,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0,457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0</t>
-  </si>
-  <si>
-    <t>371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0,417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0</t>
-  </si>
-  <si>
-    <t>67,0.0,12.23,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0,57,0.5,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,14.94,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,419,0.67,14.39,0.0,0.03,1.0,0.0,0.0,0.0,0.35,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>741,0.0,18.31,0.0,0.03,1.33,0.0,0.01,0.0,0.05,0.1,0.1,0.25,0.25,118,0.0,15.05,0.0,0.1,1.0,0.0,0.05,0.0,0.2,0.25,0.25,0.0,0.0</t>
+    <t>14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2,25.67,5.44,1.91,1.21,1.58,0.67,14.39,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.17,0.08,0.08,0.08,0.03,0.1,0.0,0.0,9.53</t>
+  </si>
+  <si>
+    <t>10.0,5.9,0.5,0.81,0.61,0.0,15.05,0.0,0.1,1.0,0,0,0.0,0.05,0.0,0.25,0.0,0.25,0.15,0.15,0.05,0.0,0.0,0.0,0.0,12.4,16.0,6.52,1.59,1.61,0.98,0.25,20.21,0.0,0.0,1.0,4,0,0.0,0.02,0.0,0.3,0.23,0.16,0.13,0.13,0.0,0.08,0.1,0.0,0.0,6.13</t>
+  </si>
+  <si>
+    <t>12.0,5.75,0.3,0.4,0.74,0.0,15.05,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.33,0.17,0.17,0.0,0.0,0.08,0.0,0.0,0.0,0.0,16.71,13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82</t>
+  </si>
+  <si>
+    <t>15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0,16.0,6.52,1.59,1.61,0.98,0.25,20.21,0.0,0.0,1.0,4,0,0.0,0.02,0.0,0.3,0.23,0.16,0.13,0.13,0.0,0.08,0.1,0.0,0.0,6.13</t>
+  </si>
+  <si>
+    <t>5.5,7.0,0.27,0.81,0.34,0.0,18.91,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.27,0.18,0.09,0.09,0.09,0.0,0.0,0.0,0.0,0.0,19.5,12.5,6.0,0.62,0.81,0.77,0.0,16.41,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.28,0.04,0.04,0.04,0.0,0.0,0.25,0.25,12.1</t>
+  </si>
+  <si>
+    <t>15.0,6.04,1.11,1.21,0.92,0.0,17.19,0.0,0.0,1.0,2,1,0.0,0.02,2.7,0.27,0.11,0.24,0.09,0.09,0.02,0.07,0.14,0.0,0.0,6.89,6.5,8.62,0.64,1.61,0.4,0.25,13.33,0.0,0.04,1.5,6,1,0.0,0.04,0.0,0.19,0.23,0.15,0.04,0.04,0.08,0.04,0.0,0.0,0.0,14.13</t>
+  </si>
+  <si>
+    <t>6.5,8.62,0.64,1.61,0.4,0.25,13.33,0.0,0.04,1.5,6,1,0.0,0.04,0.0,0.19,0.23,0.15,0.04,0.04,0.08,0.04,0.0,0.0,0.0,14.13,13.0,5.15,0.32,0.4,0.8,0.0,12.23,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.46,0.15,0.15,0.0,0.0,0.0,0.0,0.0,0.0,0.0,18.17</t>
+  </si>
+  <si>
+    <t>12.0,5.75,0.3,0.4,0.74,0.0,15.05,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.33,0.17,0.17,0.0,0.0,0.08,0.0,0.0,0.0,0.0,16.71,14.0,6.81,2.43,2.82,0.86,0.14,20.22,0.0,0.01,1.14,6,1,0.0,0.02,2.7,0.3,0.06,0.17,0.03,0.03,0.01,0.06,0.14,0.0,0.0,3.74</t>
+  </si>
+  <si>
+    <t>12.5,6.0,0.62,0.81,0.77,0.0,16.41,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.28,0.04,0.04,0.04,0.0,0.0,0.25,0.25,12.1,25.67,5.44,1.91,1.21,1.58,0.67,14.39,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.17,0.08,0.08,0.08,0.03,0.1,0.0,0.0,9.53</t>
+  </si>
+  <si>
+    <t>14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2,16.0,6.52,1.59,1.61,0.98,0.25,20.21,0.0,0.0,1.0,4,0,0.0,0.02,0.0,0.3,0.23,0.16,0.13,0.13,0.0,0.08,0.1,0.0,0.0,6.13</t>
+  </si>
+  <si>
+    <t>12.5,6.0,0.62,0.81,0.77,0.0,16.41,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.28,0.04,0.04,0.04,0.0,0.0,0.25,0.25,12.1,14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>14.0,6.81,2.43,2.82,0.86,0.14,20.22,0.0,0.01,1.14,6,1,0.0,0.02,2.7,0.3,0.06,0.17,0.03,0.03,0.01,0.06,0.14,0.0,0.0,3.74,10.0,5.9,0.5,0.81,0.61,0.0,15.05,0.0,0.1,1.0,0,0,0.0,0.05,0.0,0.25,0.0,0.25,0.15,0.15,0.05,0.0,0.0,0.0,0.0,12.4</t>
+  </si>
+  <si>
+    <t>19.0,7.0,0.47,0.4,1.17,0.0,21.02,0.0,0.21,0.0,0,0,0.0,0.05,8.11,0.47,0.11,0.11,0.0,0.0,0.0,0.0,0.0,0.25,0.25,5.46,10.0,5.9,0.5,0.81,0.61,0.0,15.05,0.0,0.1,1.0,0,0,0.0,0.05,0.0,0.25,0.0,0.25,0.15,0.15,0.05,0.0,0.0,0.0,0.0,12.4</t>
+  </si>
+  <si>
+    <t>13.0,5.15,0.32,0.4,0.8,0.0,12.23,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.46,0.15,0.15,0.0,0.0,0.0,0.0,0.0,0.0,0.0,18.17,14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48</t>
+  </si>
+  <si>
+    <t>36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52,16.0,6.52,1.59,1.61,0.98,0.25,20.21,0.0,0.0,1.0,4,0,0.0,0.02,0.0,0.3,0.23,0.16,0.13,0.13,0.0,0.08,0.1,0.0,0.0,6.13</t>
+  </si>
+  <si>
+    <t>13.0,5.15,0.32,0.4,0.8,0.0,12.23,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.46,0.15,0.15,0.0,0.0,0.0,0.0,0.0,0.0,0.0,18.17,5.0,5.7,0.25,0.81,0.31,0.5,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.4,0.0,0.1,0.0,0.0,0.1,0.0,0.0,0.0,0.0,18.67</t>
+  </si>
+  <si>
+    <t>13.0,5.62,0.32,0.4,0.8,0.0,14.94,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.23,0.08,0.23,0.15,0.15,0.0,0.0,0.0,0.0,0.0,25.75,25.67,5.44,1.91,1.21,1.58,0.67,14.39,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.17,0.08,0.08,0.08,0.03,0.1,0.0,0.0,9.53</t>
+  </si>
+  <si>
+    <t>17.67,6.99,2.63,2.42,1.09,0.0,18.31,0.0,0.03,1.33,3,0,0.0,0.01,1.35,0.29,0.08,0.15,0.04,0.04,0.1,0.08,0.29,0.25,0.25,3.36,10.0,5.9,0.5,0.81,0.61,0.0,15.05,0.0,0.1,1.0,0,0,0.0,0.05,0.0,0.25,0.0,0.25,0.15,0.15,0.05,0.0,0.0,0.0,0.0,12.4</t>
   </si>
   <si>
     <t>ottles are thrown and poluted. Its not the water companies fault.</t>
   </si>
   <si>
-    <t>417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0,245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.0,14.17,0.0,0.1,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25</t>
-  </si>
-  <si>
-    <t>417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0,77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0,345,0.0,19.76,0.0,0.0,2.0,0.0,0.0,0.0,0.05,0.25,0.2,0.06,0.25</t>
-  </si>
-  <si>
-    <t>69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25</t>
-  </si>
-  <si>
-    <t>57,0.0,14.17,0.0,0.1,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,741,0.0,18.31,0.0,0.03,1.33,0.0,0.01,0.0,0.05,0.1,0.1,0.25,0.25</t>
+    <t>16.0,6.52,1.59,1.61,0.98,0.25,20.21,0.0,0.0,1.0,4,0,0.0,0.02,0.0,0.3,0.23,0.16,0.13,0.13,0.0,0.08,0.1,0.0,0.0,6.13,9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82</t>
+  </si>
+  <si>
+    <t>10.0,5.7,0.25,0.4,0.61,0.0,14.17,0.0,0.1,1.0,0,0,0.0,0.0,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.6,12.5,6.0,0.62,0.81,0.77,0.0,16.41,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.28,0.04,0.04,0.04,0.0,0.0,0.25,0.25,12.1</t>
+  </si>
+  <si>
+    <t>16.0,6.52,1.59,1.61,0.98,0.25,20.21,0.0,0.0,1.0,4,0,0.0,0.02,0.0,0.3,0.23,0.16,0.13,0.13,0.0,0.08,0.1,0.0,0.0,6.13,5.5,7.0,0.27,0.81,0.34,0.0,18.91,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.27,0.18,0.09,0.09,0.09,0.0,0.0,0.0,0.0,0.0,19.5</t>
+  </si>
+  <si>
+    <t>22.0,4.73,0.54,0.4,1.35,0.0,10.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.14,0.0,0.0,0.09,0.0,0.0,0.0,0.0,3.57,13.67,8.41,1.02,1.21,0.84,0.0,19.76,0.0,0.0,2.0,9,0,0.0,0.0,0.0,0.27,0.17,0.12,0.07,0.07,0.1,0.07,0.14,0.25,0.25,8.0</t>
+  </si>
+  <si>
+    <t>12.0,5.75,0.3,0.4,0.74,0.0,15.05,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.33,0.17,0.17,0.0,0.0,0.08,0.0,0.0,0.0,0.0,16.71,12.5,6.0,0.62,0.81,0.77,0.0,16.41,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.28,0.04,0.04,0.04,0.0,0.0,0.25,0.25,12.1</t>
+  </si>
+  <si>
+    <t>10.0,5.7,0.25,0.4,0.61,0.0,14.17,0.0,0.1,1.0,0,0,0.0,0.0,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.6,17.67,6.99,2.63,2.42,1.09,0.0,18.31,0.0,0.03,1.33,3,0,0.0,0.01,1.35,0.29,0.08,0.15,0.04,0.04,0.1,0.08,0.29,0.25,0.25,3.36</t>
   </si>
   <si>
     <t>.a</t>
@@ -894,16 +894,16 @@
     <t>spx</t>
   </si>
   <si>
-    <t>143,0.0,15.17,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0,667,0.14,20.22,0.0,0.01,1.14,0.0,0.02,0.0,0.3,0.3,0.35,0.19,0.0</t>
+    <t>26.0,5.5,0.64,0.4,1.6,0.0,15.17,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.08,0.0,0.0,0.08,0.0,0.0,0.0,0.0,11.45,14.0,6.81,2.43,2.82,0.86,0.14,20.22,0.0,0.01,1.14,6,1,0.0,0.02,2.7,0.3,0.06,0.17,0.03,0.03,0.01,0.06,0.14,0.0,0.0,3.74</t>
   </si>
   <si>
     <t>)</t>
   </si>
   <si>
-    <t>104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0,272,0.0,17.19,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>741,0.0,18.31,0.0,0.03,1.33,0.0,0.01,0.0,0.05,0.1,0.1,0.25,0.25,57,0.5,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>22.0,4.73,0.54,0.4,1.35,0.0,10.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.14,0.0,0.0,0.09,0.0,0.0,0.0,0.0,3.57,15.0,6.04,1.11,1.21,0.92,0.0,17.19,0.0,0.0,1.0,2,1,0.0,0.02,2.7,0.27,0.11,0.24,0.09,0.09,0.02,0.07,0.14,0.0,0.0,6.89</t>
+  </si>
+  <si>
+    <t>17.67,6.99,2.63,2.42,1.09,0.0,18.31,0.0,0.03,1.33,3,0,0.0,0.01,1.35,0.29,0.08,0.15,0.04,0.04,0.1,0.08,0.29,0.25,0.25,3.36,5.0,5.7,0.25,0.81,0.31,0.5,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.4,0.0,0.1,0.0,0.0,0.1,0.0,0.0,0.0,0.0,18.67</t>
   </si>
   <si>
     <t>g</t>
@@ -912,10 +912,10 @@
     <t>ood.</t>
   </si>
   <si>
-    <t>77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,345,0.0,19.76,0.0,0.0,2.0,0.0,0.0,0.0,0.05,0.25,0.2,0.06,0.25</t>
-  </si>
-  <si>
-    <t>279,0.67,19.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.06,0.0,667,0.14,20.22,0.0,0.01,1.14,0.0,0.02,0.0,0.3,0.3,0.35,0.19,0.0</t>
+    <t>5.5,7.0,0.27,0.81,0.34,0.0,18.91,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.27,0.18,0.09,0.09,0.09,0.0,0.0,0.0,0.0,0.0,19.5,13.67,8.41,1.02,1.21,0.84,0.0,19.76,0.0,0.0,2.0,9,0,0.0,0.0,0.0,0.27,0.17,0.12,0.07,0.07,0.1,0.07,0.14,0.25,0.25,8.0</t>
+  </si>
+  <si>
+    <t>14.33,6.49,1.07,1.21,0.88,0.67,19.74,0.0,0.0,1.0,0,0,0.0,0.0,2.7,0.23,0.14,0.19,0.07,0.07,0.02,0.07,0.1,0.0,0.0,6.24,14.0,6.81,2.43,2.82,0.86,0.14,20.22,0.0,0.01,1.14,6,1,0.0,0.02,2.7,0.3,0.06,0.17,0.03,0.03,0.01,0.06,0.14,0.0,0.0,3.74</t>
   </si>
   <si>
     <t>tr</t>
@@ -924,10 +924,10 @@
     <t>icians and family physicians. The highest supported choice for each group was bottled water." (http://www.nikawater.org/bottled-water/ )</t>
   </si>
   <si>
-    <t>69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,345,0.0,19.76,0.0,0.0,2.0,0.0,0.0,0.0,0.05,0.25,0.2,0.06,0.25</t>
-  </si>
-  <si>
-    <t>741,0.0,18.31,0.0,0.03,1.33,0.0,0.01,0.0,0.05,0.1,0.1,0.25,0.25,681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25</t>
+    <t>12.0,5.75,0.3,0.4,0.74,0.0,15.05,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.33,0.17,0.17,0.0,0.0,0.08,0.0,0.0,0.0,0.0,16.71,13.67,8.41,1.02,1.21,0.84,0.0,19.76,0.0,0.0,2.0,9,0,0.0,0.0,0.0,0.27,0.17,0.12,0.07,0.07,0.1,0.07,0.14,0.25,0.25,8.0</t>
+  </si>
+  <si>
+    <t>17.67,6.99,2.63,2.42,1.09,0.0,18.31,0.0,0.03,1.33,3,0,0.0,0.01,1.35,0.29,0.08,0.15,0.04,0.04,0.1,0.08,0.29,0.25,0.25,3.36,16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62</t>
   </si>
   <si>
     <t>r.</t>
@@ -936,10 +936,10 @@
     <t>Banning their sale would greatly hurt an already struggling economy. In addition to the actual sale of water bottles, the plastics that they are made out of, and the advertising on both the bottles and packaging are also big business. In addition to this, compostable waters bottle are also coming onto the market, these can be used instead of plastics to eliminate that detriment. Moreover, bottled water not only has a cleaner safety record than municipal water, but it easier to trace when a potential health risk does occur. &lt;br/&gt; (http://www.friendsjournal.org/bottled-water) (http://www.cdc.gov/healthywater/drinking/bottled/)</t>
   </si>
   <si>
-    <t>457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0,150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25</t>
-  </si>
-  <si>
-    <t>419,0.67,14.39,0.0,0.03,1.0,0.0,0.0,0.0,0.35,0.3,0.35,0.0,0.0,644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0</t>
+    <t>14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48,12.5,6.0,0.62,0.81,0.77,0.0,16.41,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.28,0.04,0.04,0.04,0.0,0.0,0.25,0.25,12.1</t>
+  </si>
+  <si>
+    <t>25.67,5.44,1.91,1.21,1.58,0.67,14.39,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.17,0.08,0.08,0.08,0.03,0.1,0.0,0.0,9.53,13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82</t>
   </si>
   <si>
     <t>A</t>
@@ -948,37 +948,37 @@
     <t>ssociation for PET Container resources, PET water bottles are no the most recycled container in curb side programs by weight and by number! &lt;br/&gt; http://www.nestlewaterscorporate.com/bottled_water_things_to_know/Video/index.html?@videoList.featured=31101711001</t>
   </si>
   <si>
-    <t>68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0,72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0,133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>67,0.0,12.23,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0,150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25</t>
-  </si>
-  <si>
-    <t>345,0.0,19.76,0.0,0.0,2.0,0.0,0.0,0.0,0.05,0.25,0.2,0.06,0.25,245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0,72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>224,0.25,13.33,0.0,0.04,1.5,0.0,0.04,0.0,0.15,0.2,0.2,0.06,0.0,396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25</t>
-  </si>
-  <si>
-    <t>150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25,371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0,371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,741,0.0,18.31,0.0,0.03,1.33,0.0,0.01,0.0,0.05,0.1,0.1,0.25,0.25</t>
+    <t>14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2,15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0</t>
+  </si>
+  <si>
+    <t>13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82,19.0,7.0,0.47,0.4,1.17,0.0,21.02,0.0,0.21,0.0,0,0,0.0,0.05,8.11,0.47,0.11,0.11,0.0,0.0,0.0,0.0,0.0,0.25,0.25,5.46</t>
+  </si>
+  <si>
+    <t>13.0,5.15,0.32,0.4,0.8,0.0,12.23,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.46,0.15,0.15,0.0,0.0,0.0,0.0,0.0,0.0,0.0,18.17,12.5,6.0,0.62,0.81,0.77,0.0,16.41,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.28,0.04,0.04,0.04,0.0,0.0,0.25,0.25,12.1</t>
+  </si>
+  <si>
+    <t>13.67,8.41,1.02,1.21,0.84,0.0,19.76,0.0,0.0,2.0,9,0,0.0,0.0,0.0,0.27,0.17,0.12,0.07,0.07,0.1,0.07,0.14,0.25,0.25,8.0,9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82</t>
+  </si>
+  <si>
+    <t>36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52,15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0</t>
+  </si>
+  <si>
+    <t>6.5,8.62,0.64,1.61,0.4,0.25,13.33,0.0,0.04,1.5,6,1,0.0,0.04,0.0,0.19,0.23,0.15,0.04,0.04,0.08,0.04,0.0,0.0,0.0,14.13,13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6</t>
+  </si>
+  <si>
+    <t>12.5,6.0,0.62,0.81,0.77,0.0,16.41,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.28,0.04,0.04,0.04,0.0,0.0,0.25,0.25,12.1,36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52</t>
+  </si>
+  <si>
+    <t>14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2,36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52</t>
+  </si>
+  <si>
+    <t>19.0,7.0,0.47,0.4,1.17,0.0,21.02,0.0,0.21,0.0,0,0,0.0,0.05,8.11,0.47,0.11,0.11,0.0,0.0,0.0,0.0,0.0,0.25,0.25,5.46,17.67,6.99,2.63,2.42,1.09,0.0,18.31,0.0,0.03,1.33,3,0,0.0,0.01,1.35,0.29,0.08,0.15,0.04,0.04,0.1,0.08,0.29,0.25,0.25,3.36</t>
   </si>
   <si>
     <t>aid &lt;br/&gt; http://delivery.polandspring.com/Delivery/home/help/OurWater.aspx</t>
   </si>
   <si>
-    <t>644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0,396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25</t>
+    <t>13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82,13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6</t>
   </si>
   <si>
     <t>oo</t>
@@ -987,22 +987,22 @@
     <t>se millions of dollars. It would hurt the economy severely. Millions of Americans use and purchase water bottle everyday so, banning them would only hurt big corporations. &lt;br/&gt; http://www.nestlewaterscorporate.com/bottled_water_things_to_know/</t>
   </si>
   <si>
-    <t>279,0.67,19.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.06,0.0,104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>667,0.14,20.22,0.0,0.01,1.14,0.0,0.02,0.0,0.3,0.3,0.35,0.19,0.0,104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>67,0.0,12.23,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0,371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0,419,0.67,14.39,0.0,0.03,1.0,0.0,0.0,0.0,0.35,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>345,0.0,19.76,0.0,0.0,2.0,0.0,0.0,0.0,0.05,0.25,0.2,0.06,0.25,57,0.5,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0,644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0</t>
+    <t>14.33,6.49,1.07,1.21,0.88,0.67,19.74,0.0,0.0,1.0,0,0,0.0,0.0,2.7,0.23,0.14,0.19,0.07,0.07,0.02,0.07,0.1,0.0,0.0,6.24,22.0,4.73,0.54,0.4,1.35,0.0,10.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.14,0.0,0.0,0.09,0.0,0.0,0.0,0.0,3.57</t>
+  </si>
+  <si>
+    <t>14.0,6.81,2.43,2.82,0.86,0.14,20.22,0.0,0.01,1.14,6,1,0.0,0.02,2.7,0.3,0.06,0.17,0.03,0.03,0.01,0.06,0.14,0.0,0.0,3.74,22.0,4.73,0.54,0.4,1.35,0.0,10.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.14,0.0,0.0,0.09,0.0,0.0,0.0,0.0,3.57</t>
+  </si>
+  <si>
+    <t>13.0,5.15,0.32,0.4,0.8,0.0,12.23,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.46,0.15,0.15,0.0,0.0,0.0,0.0,0.0,0.0,0.0,18.17,36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52</t>
+  </si>
+  <si>
+    <t>15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0,25.67,5.44,1.91,1.21,1.58,0.67,14.39,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.17,0.08,0.08,0.08,0.03,0.1,0.0,0.0,9.53</t>
+  </si>
+  <si>
+    <t>13.67,8.41,1.02,1.21,0.84,0.0,19.76,0.0,0.0,2.0,9,0,0.0,0.0,0.0,0.27,0.17,0.12,0.07,0.07,0.1,0.07,0.14,0.25,0.25,8.0,5.0,5.7,0.25,0.81,0.31,0.5,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.4,0.0,0.1,0.0,0.0,0.1,0.0,0.0,0.0,0.0,18.67</t>
+  </si>
+  <si>
+    <t>9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82,13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82</t>
   </si>
   <si>
     <t>ra</t>
@@ -1011,13 +1011,13 @@
     <t>te.com/bottled_water_things_to_know/Video/index.html?@videoList.featured=31101711001</t>
   </si>
   <si>
-    <t>150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25,143,0.0,15.17,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,14.94,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,67,0.0,12.23,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0,644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0</t>
+    <t>12.5,6.0,0.62,0.81,0.77,0.0,16.41,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.28,0.04,0.04,0.04,0.0,0.0,0.25,0.25,12.1,26.0,5.5,0.64,0.4,1.6,0.0,15.17,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.08,0.0,0.0,0.08,0.0,0.0,0.0,0.0,11.45</t>
+  </si>
+  <si>
+    <t>13.0,5.62,0.32,0.4,0.8,0.0,14.94,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.23,0.08,0.23,0.15,0.15,0.0,0.0,0.0,0.0,0.0,25.75,13.0,5.15,0.32,0.4,0.8,0.0,12.23,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.46,0.15,0.15,0.0,0.0,0.0,0.0,0.0,0.0,0.0,18.17</t>
+  </si>
+  <si>
+    <t>14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48,13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82</t>
   </si>
   <si>
     <t>n</t>
@@ -1026,7 +1026,7 @@
     <t>be recycled! According to the National Association for PET Container resources, PET water bottles are no the most recycled container in curb side programs by weight and by number! &lt;br/&gt; http://www.nestlewaterscorporate.com/bottled_water_things_to_know/Video/index.html?@videoList.featured=31101711001</t>
   </si>
   <si>
-    <t>741,0.0,18.31,0.0,0.03,1.33,0.0,0.01,0.0,0.05,0.1,0.1,0.25,0.25,272,0.0,17.19,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.15,0.15,0.0,0.0</t>
+    <t>17.67,6.99,2.63,2.42,1.09,0.0,18.31,0.0,0.03,1.33,3,0,0.0,0.01,1.35,0.29,0.08,0.15,0.04,0.04,0.1,0.08,0.29,0.25,0.25,3.36,15.0,6.04,1.11,1.21,0.92,0.0,17.19,0.0,0.0,1.0,2,1,0.0,0.02,2.7,0.27,0.11,0.24,0.09,0.09,0.02,0.07,0.14,0.0,0.0,6.89</t>
   </si>
   <si>
     <t>ot</t>
@@ -1035,13 +1035,13 @@
     <t>tled water. Many claim that this is due to European culture, since the continent has had very polluted waters due to agriculture and industry dating back to the Industrial Revolution. The water bottles they buy help us.</t>
   </si>
   <si>
-    <t>279,0.67,19.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.06,0.0,72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0,133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0,667,0.14,20.22,0.0,0.01,1.14,0.0,0.02,0.0,0.3,0.3,0.35,0.19,0.0</t>
+    <t>14.33,6.49,1.07,1.21,0.88,0.67,19.74,0.0,0.0,1.0,0,0,0.0,0.0,2.7,0.23,0.14,0.19,0.07,0.07,0.02,0.07,0.1,0.0,0.0,6.24,15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0</t>
+  </si>
+  <si>
+    <t>22.0,4.73,0.54,0.4,1.35,0.0,10.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.14,0.0,0.0,0.09,0.0,0.0,0.0,0.0,3.57,19.0,7.0,0.47,0.4,1.17,0.0,21.02,0.0,0.21,0.0,0,0,0.0,0.05,8.11,0.47,0.11,0.11,0.0,0.0,0.0,0.0,0.0,0.25,0.25,5.46</t>
+  </si>
+  <si>
+    <t>36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52,14.0,6.81,2.43,2.82,0.86,0.14,20.22,0.0,0.01,1.14,6,1,0.0,0.02,2.7,0.3,0.06,0.17,0.03,0.03,0.01,0.06,0.14,0.0,0.0,3.74</t>
   </si>
   <si>
     <t>ie</t>
@@ -1050,7 +1050,7 @@
     <t>s contained in all beverages shipped to schools. Further, a survey was taken of parents, pediatricians and family physicians. The highest supported choice for each group was bottled water." (http://www.nikawater.org/bottled-water/ )</t>
   </si>
   <si>
-    <t>396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25,667,0.14,20.22,0.0,0.01,1.14,0.0,0.02,0.0,0.3,0.3,0.35,0.19,0.0</t>
+    <t>13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6,14.0,6.81,2.43,2.82,0.86,0.14,20.22,0.0,0.01,1.14,6,1,0.0,0.02,2.7,0.3,0.06,0.17,0.03,0.03,0.01,0.06,0.14,0.0,0.0,3.74</t>
   </si>
   <si>
     <t>as</t>
@@ -1059,13 +1059,13 @@
     <t>been a 58% cut in total calories contained in all beverages shipped to schools. Further, a survey was taken of parents, pediatricians and family physicians. The highest supported choice for each group was bottled water." (http://www.nikawater.org/bottled-water/ )</t>
   </si>
   <si>
-    <t>104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0,73,0.0,14.94,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.0,14.17,0.0,0.1,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>644,0.29,15.03,0.0,0.02,1.43,0.0,0.02,0.0,0.4,0.5,0.55,0.06,0.0,681,0.67,17.29,0.0,0.01,1.5,0.0,0.0,0.0,0.3,0.45,0.4,0.06,0.25</t>
+    <t>22.0,4.73,0.54,0.4,1.35,0.0,10.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.14,0.0,0.0,0.09,0.0,0.0,0.0,0.0,3.57,13.0,5.62,0.32,0.4,0.8,0.0,14.94,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.23,0.08,0.23,0.15,0.15,0.0,0.0,0.0,0.0,0.0,25.75</t>
+  </si>
+  <si>
+    <t>10.0,5.7,0.25,0.4,0.61,0.0,14.17,0.0,0.1,1.0,0,0,0.0,0.0,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.6,19.0,7.0,0.47,0.4,1.17,0.0,21.02,0.0,0.21,0.0,0,0,0.0,0.05,8.11,0.47,0.11,0.11,0.0,0.0,0.0,0.0,0.0,0.25,0.25,5.46</t>
+  </si>
+  <si>
+    <t>13.57,6.78,2.35,2.82,0.83,0.29,15.03,0.0,0.02,1.43,12,0,0.0,0.02,4.05,0.27,0.09,0.14,0.07,0.07,0.01,0.01,0.0,0.0,0.0,5.82,16.5,6.88,2.45,2.42,1.01,0.67,17.29,0.0,0.01,1.5,0,0,0.0,0.0,0.0,0.28,0.1,0.19,0.07,0.07,0.03,0.02,0.0,0.25,0.25,4.62</t>
   </si>
   <si>
     <t>f</t>
@@ -1074,34 +1074,34 @@
     <t>water bottles, the plastics that they are made out of, and the advertising on both the bottles and packaging are also big business. In addition to this, compostable waters bottle are also coming onto the market, these can be used instead of plastics to eliminate that detriment. Moreover, bottled water not only has a cleaner safety record than municipal water, but it easier to trace when a potential health risk does occur. &lt;br/&gt; (http://www.friendsjournal.org/bottled-water) (http://www.cdc.gov/healthywater/drinking/bottled/)</t>
   </si>
   <si>
-    <t>133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25,667,0.14,20.22,0.0,0.01,1.14,0.0,0.02,0.0,0.3,0.3,0.35,0.19,0.0</t>
-  </si>
-  <si>
-    <t>419,0.67,14.39,0.0,0.03,1.0,0.0,0.0,0.0,0.35,0.3,0.35,0.0,0.0,272,0.0,17.19,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>118,0.0,15.05,0.0,0.1,1.0,0.0,0.05,0.0,0.2,0.25,0.25,0.0,0.0,245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.0,14.17,0.0,0.1,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>741,0.0,18.31,0.0,0.03,1.33,0.0,0.01,0.0,0.05,0.1,0.1,0.25,0.25,417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0</t>
+    <t>19.0,7.0,0.47,0.4,1.17,0.0,21.02,0.0,0.21,0.0,0,0,0.0,0.05,8.11,0.47,0.11,0.11,0.0,0.0,0.0,0.0,0.0,0.25,0.25,5.46,14.0,6.81,2.43,2.82,0.86,0.14,20.22,0.0,0.01,1.14,6,1,0.0,0.02,2.7,0.3,0.06,0.17,0.03,0.03,0.01,0.06,0.14,0.0,0.0,3.74</t>
+  </si>
+  <si>
+    <t>25.67,5.44,1.91,1.21,1.58,0.67,14.39,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.17,0.08,0.08,0.08,0.03,0.1,0.0,0.0,9.53,15.0,6.04,1.11,1.21,0.92,0.0,17.19,0.0,0.0,1.0,2,1,0.0,0.02,2.7,0.27,0.11,0.24,0.09,0.09,0.02,0.07,0.14,0.0,0.0,6.89</t>
+  </si>
+  <si>
+    <t>10.0,5.9,0.5,0.81,0.61,0.0,15.05,0.0,0.1,1.0,0,0,0.0,0.05,0.0,0.25,0.0,0.25,0.15,0.15,0.05,0.0,0.0,0.0,0.0,12.4,9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82</t>
+  </si>
+  <si>
+    <t>10.0,5.7,0.25,0.4,0.61,0.0,14.17,0.0,0.1,1.0,0,0,0.0,0.0,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.6,36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52</t>
+  </si>
+  <si>
+    <t>17.67,6.99,2.63,2.42,1.09,0.0,18.31,0.0,0.03,1.33,3,0,0.0,0.01,1.35,0.29,0.08,0.15,0.04,0.04,0.1,0.08,0.29,0.25,0.25,3.36,16.0,6.52,1.59,1.61,0.98,0.25,20.21,0.0,0.0,1.0,4,0,0.0,0.02,0.0,0.3,0.23,0.16,0.13,0.13,0.0,0.08,0.1,0.0,0.0,6.13</t>
   </si>
   <si>
     <t>developing countries, where public water is least safe to drink. Many government programs regularly disperse bottled water for various reasons. Distributing small bottles of water is much easier than distributing large bulk storages of water. Also contamination from large water storage containers is much more likely than from single 12-20 ounce bottles of water.</t>
   </si>
   <si>
-    <t>143,0.0,15.17,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0,77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0,419,0.67,14.39,0.0,0.03,1.0,0.0,0.0,0.0,0.35,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.5,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25</t>
-  </si>
-  <si>
-    <t>457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0,419,0.67,14.39,0.0,0.03,1.0,0.0,0.0,0.0,0.35,0.3,0.35,0.0,0.0</t>
+    <t>26.0,5.5,0.64,0.4,1.6,0.0,15.17,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.08,0.0,0.0,0.08,0.0,0.0,0.0,0.0,11.45,5.5,7.0,0.27,0.81,0.34,0.0,18.91,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.27,0.18,0.09,0.09,0.09,0.0,0.0,0.0,0.0,0.0,19.5</t>
+  </si>
+  <si>
+    <t>22.0,4.73,0.54,0.4,1.35,0.0,10.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.14,0.0,0.0,0.09,0.0,0.0,0.0,0.0,3.57,25.67,5.44,1.91,1.21,1.58,0.67,14.39,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.17,0.08,0.08,0.08,0.03,0.1,0.0,0.0,9.53</t>
+  </si>
+  <si>
+    <t>5.0,5.7,0.25,0.81,0.31,0.5,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.4,0.0,0.1,0.0,0.0,0.1,0.0,0.0,0.0,0.0,18.67,12.5,6.0,0.62,0.81,0.77,0.0,16.41,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.28,0.04,0.04,0.04,0.0,0.0,0.25,0.25,12.1</t>
+  </si>
+  <si>
+    <t>14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48,25.67,5.44,1.91,1.21,1.58,0.67,14.39,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.17,0.08,0.08,0.08,0.03,0.1,0.0,0.0,9.53</t>
   </si>
   <si>
     <t>w</t>
@@ -1110,13 +1110,13 @@
     <t>ill not be bad for the economy if we figure out how to reuse properly.</t>
   </si>
   <si>
-    <t>371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0,143,0.0,15.17,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>345,0.0,19.76,0.0,0.0,2.0,0.0,0.0,0.0,0.05,0.25,0.2,0.06,0.25,272,0.0,17.19,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0,396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25</t>
+    <t>36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52,26.0,5.5,0.64,0.4,1.6,0.0,15.17,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.08,0.0,0.0,0.08,0.0,0.0,0.0,0.0,11.45</t>
+  </si>
+  <si>
+    <t>13.67,8.41,1.02,1.21,0.84,0.0,19.76,0.0,0.0,2.0,9,0,0.0,0.0,0.0,0.27,0.17,0.12,0.07,0.07,0.1,0.07,0.14,0.25,0.25,8.0,15.0,6.04,1.11,1.21,0.92,0.0,17.19,0.0,0.0,1.0,2,1,0.0,0.02,2.7,0.27,0.11,0.24,0.09,0.09,0.02,0.07,0.14,0.0,0.0,6.89</t>
+  </si>
+  <si>
+    <t>16.0,6.52,1.59,1.61,0.98,0.25,20.21,0.0,0.0,1.0,4,0,0.0,0.02,0.0,0.3,0.23,0.16,0.13,0.13,0.0,0.08,0.1,0.0,0.0,6.13,13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6</t>
   </si>
   <si>
     <t>hi</t>
@@ -1125,58 +1125,58 @@
     <t>ngs_to_know/</t>
   </si>
   <si>
-    <t>457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0,224,0.25,13.33,0.0,0.04,1.5,0.0,0.04,0.0,0.15,0.2,0.2,0.06,0.0</t>
-  </si>
-  <si>
-    <t>68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0,133,0.0,21.02,0.0,0.21,0.0,0.0,0.05,0.0,0.1,0.15,0.15,0.06,0.25</t>
-  </si>
-  <si>
-    <t>279,0.67,19.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.06,0.0,245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.0,14.17,0.0,0.1,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,97,0.0,15.32,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>97,0.0,15.32,0.0,0.12,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0,224,0.25,13.33,0.0,0.04,1.5,0.0,0.04,0.0,0.15,0.2,0.2,0.06,0.0</t>
-  </si>
-  <si>
-    <t>150,0.0,16.41,0.0,0.04,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.06,0.25,396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25</t>
-  </si>
-  <si>
-    <t>57,0.0,14.17,0.0,0.1,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,667,0.14,20.22,0.0,0.01,1.14,0.0,0.02,0.0,0.3,0.3,0.35,0.19,0.0</t>
-  </si>
-  <si>
-    <t>345,0.0,19.76,0.0,0.0,2.0,0.0,0.0,0.0,0.05,0.25,0.2,0.06,0.25,68,1.0,9.81,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>67,0.0,12.23,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0,345,0.0,19.76,0.0,0.0,2.0,0.0,0.0,0.0,0.05,0.25,0.2,0.06,0.25</t>
-  </si>
-  <si>
-    <t>72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0,57,0.0,14.17,0.0,0.1,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0,104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0,272,0.0,17.19,0.0,0.0,1.0,0.0,0.02,0.0,0.25,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,57,0.0,14.17,0.0,0.1,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>741,0.0,18.31,0.0,0.03,1.33,0.0,0.01,0.0,0.05,0.1,0.1,0.25,0.25,67,0.0,12.23,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
+    <t>14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48,6.5,8.62,0.64,1.61,0.4,0.25,13.33,0.0,0.04,1.5,6,1,0.0,0.04,0.0,0.19,0.23,0.15,0.04,0.04,0.08,0.04,0.0,0.0,0.0,14.13</t>
+  </si>
+  <si>
+    <t>14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2,19.0,7.0,0.47,0.4,1.17,0.0,21.02,0.0,0.21,0.0,0,0,0.0,0.05,8.11,0.47,0.11,0.11,0.0,0.0,0.0,0.0,0.0,0.25,0.25,5.46</t>
+  </si>
+  <si>
+    <t>14.33,6.49,1.07,1.21,0.88,0.67,19.74,0.0,0.0,1.0,0,0,0.0,0.0,2.7,0.23,0.14,0.19,0.07,0.07,0.02,0.07,0.1,0.0,0.0,6.24,9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82</t>
+  </si>
+  <si>
+    <t>10.0,5.7,0.25,0.4,0.61,0.0,14.17,0.0,0.1,1.0,0,0,0.0,0.0,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.6,17.0,5.71,0.42,0.4,1.04,0.0,15.32,0.0,0.12,1.0,0,0,0.0,0.0,1.35,0.35,0.06,0.29,0.12,0.12,0.0,0.06,0.0,0.0,0.0,14.5</t>
+  </si>
+  <si>
+    <t>17.0,5.71,0.42,0.4,1.04,0.0,15.32,0.0,0.12,1.0,0,0,0.0,0.0,1.35,0.35,0.06,0.29,0.12,0.12,0.0,0.06,0.0,0.0,0.0,14.5,15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0</t>
+  </si>
+  <si>
+    <t>16.0,6.52,1.59,1.61,0.98,0.25,20.21,0.0,0.0,1.0,4,0,0.0,0.02,0.0,0.3,0.23,0.16,0.13,0.13,0.0,0.08,0.1,0.0,0.0,6.13,6.5,8.62,0.64,1.61,0.4,0.25,13.33,0.0,0.04,1.5,6,1,0.0,0.04,0.0,0.19,0.23,0.15,0.04,0.04,0.08,0.04,0.0,0.0,0.0,14.13</t>
+  </si>
+  <si>
+    <t>12.5,6.0,0.62,0.81,0.77,0.0,16.41,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.16,0.28,0.04,0.04,0.04,0.0,0.0,0.25,0.25,12.1,13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6</t>
+  </si>
+  <si>
+    <t>10.0,5.7,0.25,0.4,0.61,0.0,14.17,0.0,0.1,1.0,0,0,0.0,0.0,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.6,14.0,6.81,2.43,2.82,0.86,0.14,20.22,0.0,0.01,1.14,6,1,0.0,0.02,2.7,0.3,0.06,0.17,0.03,0.03,0.01,0.06,0.14,0.0,0.0,3.74</t>
+  </si>
+  <si>
+    <t>13.67,8.41,1.02,1.21,0.84,0.0,19.76,0.0,0.0,2.0,9,0,0.0,0.0,0.0,0.27,0.17,0.12,0.07,0.07,0.1,0.07,0.14,0.25,0.25,8.0,14.0,4.86,0.35,0.4,0.86,1.0,9.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,21.2</t>
+  </si>
+  <si>
+    <t>13.0,5.15,0.32,0.4,0.8,0.0,12.23,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.46,0.15,0.15,0.0,0.0,0.0,0.0,0.0,0.0,0.0,18.17,13.67,8.41,1.02,1.21,0.84,0.0,19.76,0.0,0.0,2.0,9,0,0.0,0.0,0.0,0.27,0.17,0.12,0.07,0.07,0.1,0.07,0.14,0.25,0.25,8.0</t>
+  </si>
+  <si>
+    <t>15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0,10.0,5.7,0.25,0.4,0.61,0.0,14.17,0.0,0.1,1.0,0,0,0.0,0.0,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>16.0,6.52,1.59,1.61,0.98,0.25,20.21,0.0,0.0,1.0,4,0,0.0,0.02,0.0,0.3,0.23,0.16,0.13,0.13,0.0,0.08,0.1,0.0,0.0,6.13,22.0,4.73,0.54,0.4,1.35,0.0,10.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.14,0.0,0.0,0.09,0.0,0.0,0.0,0.0,3.57</t>
+  </si>
+  <si>
+    <t>36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52,15.0,6.04,1.11,1.21,0.92,0.0,17.19,0.0,0.0,1.0,2,1,0.0,0.02,2.7,0.27,0.11,0.24,0.09,0.09,0.02,0.07,0.14,0.0,0.0,6.89</t>
+  </si>
+  <si>
+    <t>5.5,7.0,0.27,0.81,0.34,0.0,18.91,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.27,0.18,0.09,0.09,0.09,0.0,0.0,0.0,0.0,0.0,19.5,10.0,5.7,0.25,0.4,0.61,0.0,14.17,0.0,0.1,1.0,0,0,0.0,0.0,0.0,0.2,0.2,0.1,0.0,0.0,0.0,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>17.67,6.99,2.63,2.42,1.09,0.0,18.31,0.0,0.03,1.33,3,0,0.0,0.01,1.35,0.29,0.08,0.15,0.04,0.04,0.1,0.08,0.29,0.25,0.25,3.36,13.0,5.15,0.32,0.4,0.8,0.0,12.23,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.46,0.15,0.15,0.0,0.0,0.0,0.0,0.0,0.0,0.0,18.17</t>
   </si>
   <si>
     <t>arentee safety</t>
   </si>
   <si>
-    <t>72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0,67,0.0,12.23,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>741,0.0,18.31,0.0,0.03,1.33,0.0,0.01,0.0,0.05,0.1,0.1,0.25,0.25,396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25</t>
+    <t>15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0,13.0,5.15,0.32,0.4,0.8,0.0,12.23,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.46,0.15,0.15,0.0,0.0,0.0,0.0,0.0,0.0,0.0,18.17</t>
+  </si>
+  <si>
+    <t>17.67,6.99,2.63,2.42,1.09,0.0,18.31,0.0,0.03,1.33,3,0,0.0,0.01,1.35,0.29,0.08,0.15,0.04,0.04,0.1,0.08,0.29,0.25,0.25,3.36,13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6</t>
   </si>
   <si>
     <t>e</t>
@@ -1185,7 +1185,7 @@
     <t>it would leave hundreds of people without jobs and the big corporations like Dasani and Nestle would loose millions of dollars. It would hurt the economy severely. Millions of Americans use and purchase water bottle everyday so, banning them would only hurt big corporations. &lt;br/&gt; http://www.nestlewaterscorporate.com/bottled_water_things_to_know/</t>
   </si>
   <si>
-    <t>371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0,741,0.0,18.31,0.0,0.03,1.33,0.0,0.01,0.0,0.05,0.1,0.1,0.25,0.25</t>
+    <t>36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52,17.67,6.99,2.63,2.42,1.09,0.0,18.31,0.0,0.03,1.33,3,0,0.0,0.01,1.35,0.29,0.08,0.15,0.04,0.04,0.1,0.08,0.29,0.25,0.25,3.36</t>
   </si>
   <si>
     <t>st</t>
@@ -1194,10 +1194,10 @@
     <t>our water when it comes into the plant and for consistency several times per hour at every stage of the bottling process. Every year, we screen for over 200 possible contaminants-far more than state and federal regulations require."-nuff said &lt;br/&gt; http://delivery.polandspring.com/Delivery/home/help/OurWater.aspx</t>
   </si>
   <si>
-    <t>245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0,371,0.5,11.07,0.0,0.05,2.5,0.0,0.03,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>419,0.67,14.39,0.0,0.03,1.0,0.0,0.0,0.0,0.35,0.3,0.35,0.0,0.0,667,0.14,20.22,0.0,0.01,1.14,0.0,0.02,0.0,0.3,0.3,0.35,0.19,0.0</t>
+    <t>9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82,36.5,5.08,1.81,0.81,2.24,0.5,11.07,0.0,0.05,2.5,0,0,0.0,0.03,1.35,0.25,0.05,0.19,0.03,0.03,0.07,0.03,0.0,0.0,0.0,5.52</t>
+  </si>
+  <si>
+    <t>25.67,5.44,1.91,1.21,1.58,0.67,14.39,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.21,0.16,0.17,0.08,0.08,0.08,0.03,0.1,0.0,0.0,9.53,14.0,6.81,2.43,2.82,0.86,0.14,20.22,0.0,0.01,1.14,6,1,0.0,0.02,2.7,0.3,0.06,0.17,0.03,0.03,0.01,0.06,0.14,0.0,0.0,3.74</t>
   </si>
   <si>
     <t>nc</t>
@@ -1206,10 +1206,10 @@
     <t>eption there has been a 58% cut in total calories contained in all beverages shipped to schools. Further, a survey was taken of parents, pediatricians and family physicians. The highest supported choice for each group was bottled water." (http://www.nikawater.org/bottled-water/ )</t>
   </si>
   <si>
-    <t>224,0.25,13.33,0.0,0.04,1.5,0.0,0.04,0.0,0.15,0.2,0.2,0.06,0.0,72,0.0,10.06,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>741,0.0,18.31,0.0,0.03,1.33,0.0,0.01,0.0,0.05,0.1,0.1,0.25,0.25,69,0.0,15.05,0.0,0.0,0.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>6.5,8.62,0.64,1.61,0.4,0.25,13.33,0.0,0.04,1.5,6,1,0.0,0.04,0.0,0.19,0.23,0.15,0.04,0.04,0.08,0.04,0.0,0.0,0.0,14.13,15.0,4.8,0.37,0.4,0.92,0.0,10.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,28.0</t>
+  </si>
+  <si>
+    <t>17.67,6.99,2.63,2.42,1.09,0.0,18.31,0.0,0.03,1.33,3,0,0.0,0.01,1.35,0.29,0.08,0.15,0.04,0.04,0.1,0.08,0.29,0.25,0.25,3.36,12.0,5.75,0.3,0.4,0.74,0.0,15.05,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.33,0.17,0.17,0.0,0.0,0.08,0.0,0.0,0.0,0.0,16.71</t>
   </si>
   <si>
     <t>ue</t>
@@ -1218,31 +1218,31 @@
     <t>with that logic</t>
   </si>
   <si>
-    <t>279,0.67,19.74,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.25,0.25,0.06,0.0,77,0.0,18.91,0.0,0.09,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0,417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0</t>
+    <t>14.33,6.49,1.07,1.21,0.88,0.67,19.74,0.0,0.0,1.0,0,0,0.0,0.0,2.7,0.23,0.14,0.19,0.07,0.07,0.02,0.07,0.1,0.0,0.0,6.24,5.5,7.0,0.27,0.81,0.34,0.0,18.91,0.0,0.09,1.0,0,0,0.0,0.0,0.0,0.27,0.18,0.09,0.09,0.09,0.0,0.0,0.0,0.0,0.0,19.5</t>
+  </si>
+  <si>
+    <t>14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48,16.0,6.52,1.59,1.61,0.98,0.25,20.21,0.0,0.0,1.0,4,0,0.0,0.02,0.0,0.3,0.23,0.16,0.13,0.13,0.0,0.08,0.1,0.0,0.0,6.13</t>
   </si>
   <si>
     <t>s is much more likely than from single 12-20 ounce bottles of water.</t>
   </si>
   <si>
-    <t>417,0.25,20.21,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.13,0.0,667,0.14,20.22,0.0,0.01,1.14,0.0,0.02,0.0,0.3,0.3,0.35,0.19,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,10.38,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.2,0.0,0.0,224,0.25,13.33,0.0,0.04,1.5,0.0,0.04,0.0,0.15,0.2,0.2,0.06,0.0</t>
-  </si>
-  <si>
-    <t>396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25,457,0.0,20.22,0.0,0.01,1.6,0.0,0.13,0.0,0.25,0.35,0.35,0.06,0.0</t>
+    <t>16.0,6.52,1.59,1.61,0.98,0.25,20.21,0.0,0.0,1.0,4,0,0.0,0.02,0.0,0.3,0.23,0.16,0.13,0.13,0.0,0.08,0.1,0.0,0.0,6.13,14.0,6.81,2.43,2.82,0.86,0.14,20.22,0.0,0.01,1.14,6,1,0.0,0.02,2.7,0.3,0.06,0.17,0.03,0.03,0.01,0.06,0.14,0.0,0.0,3.74</t>
+  </si>
+  <si>
+    <t>22.0,4.73,0.54,0.4,1.35,0.0,10.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.14,0.0,0.0,0.09,0.0,0.0,0.0,0.0,3.57,6.5,8.62,0.64,1.61,0.4,0.25,13.33,0.0,0.04,1.5,6,1,0.0,0.04,0.0,0.19,0.23,0.15,0.04,0.04,0.08,0.04,0.0,0.0,0.0,14.13</t>
+  </si>
+  <si>
+    <t>13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6,14.2,6.44,1.76,2.01,0.87,0.0,20.22,0.0,0.01,1.6,29,1,0.0,0.13,1.35,0.25,0.1,0.14,0.06,0.06,0.0,0.03,0.0,0.0,0.0,6.48</t>
   </si>
   <si>
     <t>orld's thousands of bottled water companies in 2001.</t>
   </si>
   <si>
-    <t>245,0.2,11.66,0.0,0.09,1.0,0.0,0.0,0.0,0.1,0.3,0.25,0.0,0.0,67,0.0,12.23,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>345,0.0,19.76,0.0,0.0,2.0,0.0,0.0,0.0,0.05,0.25,0.2,0.06,0.25,396,0.25,19.13,0.0,0.02,1.25,0.0,0.0,0.0,0.25,0.45,0.45,0.06,0.25</t>
+    <t>9.0,5.44,1.11,2.01,0.55,0.2,11.66,0.0,0.09,1.0,1,0,0.0,0.0,0.0,0.24,0.11,0.13,0.04,0.04,0.07,0.0,0.0,0.0,0.0,7.82,13.0,5.15,0.32,0.4,0.8,0.0,12.23,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.46,0.15,0.15,0.0,0.0,0.0,0.0,0.0,0.0,0.0,18.17</t>
+  </si>
+  <si>
+    <t>13.67,8.41,1.02,1.21,0.84,0.0,19.76,0.0,0.0,2.0,9,0,0.0,0.0,0.0,0.27,0.17,0.12,0.07,0.07,0.1,0.07,0.14,0.25,0.25,8.0,13.25,7.47,1.31,1.61,0.81,0.25,19.13,0.0,0.02,1.25,0,0,0.0,0.0,2.7,0.28,0.09,0.13,0.02,0.02,0.06,0.02,0.0,0.25,0.25,7.6</t>
   </si>
 </sst>
 </file>
